--- a/tests/testdata/test_geometry_computation.xlsx
+++ b/tests/testdata/test_geometry_computation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Input_variables" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,8 +723,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,12 +739,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -759,8 +758,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -785,45 +802,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </left>
       <right/>
@@ -833,15 +811,6 @@
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -899,27 +868,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,25 +971,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -957,98 +980,203 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1820,2453 +1948,2479 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="6" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+    <col min="9" max="11" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="35" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="47"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="39" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="47"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="40">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="40">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="40">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="41">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="47"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="40">
         <v>0.95</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="40">
         <v>0.95</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="40">
         <v>0.9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="40">
         <v>0.9</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="40">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="40">
         <v>1</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="40">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="47"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="40">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="40">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="40">
         <v>2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="40">
         <v>2</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="40">
         <v>2</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="40">
         <v>2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="40">
         <v>2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="47"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="40">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="40">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="40">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="40">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="40">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="40">
         <v>1</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="40">
         <v>1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="47"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="47"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="47"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="40">
         <v>30000</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="40">
         <v>1600000</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="40">
         <v>40000</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="40">
         <v>4000000</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="40">
         <v>23000</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="40">
         <v>23000</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="40">
         <v>15000</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="41">
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="47"/>
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:11" ht="15" thickBot="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="45">
         <v>20000</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="45">
         <v>15000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="45">
         <v>18000</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="45">
         <v>18000</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="45">
         <v>12000</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="45">
         <v>1200000</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="45">
         <v>14000</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="46">
         <v>1400000</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="47"/>
-      <c r="B11" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
+      <c r="A11" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="33">
+        <v>24.9397924881983</v>
+      </c>
+      <c r="E11" s="33">
+        <v>29.846033506748501</v>
+      </c>
+      <c r="F11" s="33">
+        <v>21.549071913738601</v>
+      </c>
+      <c r="G11" s="33">
+        <v>30.724628045371599</v>
+      </c>
+      <c r="H11" s="33">
+        <v>24.603567265875999</v>
+      </c>
+      <c r="I11" s="33">
+        <v>24.603567265875999</v>
+      </c>
+      <c r="J11" s="33">
+        <v>24.603567265875999</v>
+      </c>
+      <c r="K11" s="35">
+        <v>24.603567265875999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0.397534327540081</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0.38745672969163403</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.27778552720397198</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.38853068564494597</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0.39281645770158102</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0.39281645770158102</v>
+      </c>
+      <c r="J12" s="37">
+        <v>0.39281645770158102</v>
+      </c>
+      <c r="K12" s="39">
+        <v>0.39281645770158102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="37">
+        <v>310.53423258511901</v>
+      </c>
+      <c r="E13" s="37">
+        <v>311.82631932244198</v>
+      </c>
+      <c r="F13" s="37">
+        <v>262.54231664112598</v>
+      </c>
+      <c r="G13" s="37">
+        <v>334.01554867815503</v>
+      </c>
+      <c r="H13" s="37">
+        <v>217.83710715883799</v>
+      </c>
+      <c r="I13" s="37">
+        <v>217.83710715883799</v>
+      </c>
+      <c r="J13" s="37">
+        <v>217.83710715883799</v>
+      </c>
+      <c r="K13" s="39">
+        <v>217.83710715883799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0.43852951083798603</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0.27896020164795099</v>
+      </c>
+      <c r="F14" s="37">
+        <v>0.41639127372561502</v>
+      </c>
+      <c r="G14" s="37">
+        <v>0.36908011038102101</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0.33759378483001701</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0.33759378483001701</v>
+      </c>
+      <c r="J14" s="37">
+        <v>0.33759378483001701</v>
+      </c>
+      <c r="K14" s="39">
+        <v>0.33759378483001701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="37">
+        <v>9592.8821295104699</v>
+      </c>
+      <c r="E15" s="37">
+        <v>13728.6250951821</v>
+      </c>
+      <c r="F15" s="37">
+        <v>9530.9428397424908</v>
+      </c>
+      <c r="G15" s="37">
+        <v>11844.471056845599</v>
+      </c>
+      <c r="H15" s="37">
+        <v>7039.1850549506698</v>
+      </c>
+      <c r="I15" s="37">
+        <v>7039.1850549506698</v>
+      </c>
+      <c r="J15" s="37">
+        <v>7039.1850549506698</v>
+      </c>
+      <c r="K15" s="39">
+        <v>7039.1850549506698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="37">
+        <v>6.9859353305379797</v>
+      </c>
+      <c r="E16" s="37">
+        <v>4.8667038063889603</v>
+      </c>
+      <c r="F16" s="37">
+        <v>5.9682746322479998</v>
+      </c>
+      <c r="G16" s="37">
+        <v>7.6920989582716999</v>
+      </c>
+      <c r="H16" s="37">
+        <v>7.9973902757422897</v>
+      </c>
+      <c r="I16" s="37">
+        <v>7.9973902757422897</v>
+      </c>
+      <c r="J16" s="37">
+        <v>7.9973902757422897</v>
+      </c>
+      <c r="K16" s="39">
+        <v>7.9973902757422897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="37">
+        <v>0.36032232455732299</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0.43263553136410199</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0.311870213321776</v>
+      </c>
+      <c r="G17" s="37">
+        <v>0.34484796209278801</v>
+      </c>
+      <c r="H17" s="37">
+        <v>0.43685550941856799</v>
+      </c>
+      <c r="I17" s="37">
+        <v>0.43685550941856799</v>
+      </c>
+      <c r="J17" s="37">
+        <v>0.43685550941856799</v>
+      </c>
+      <c r="K17" s="39">
+        <v>0.43685550941856799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="37">
+        <v>235.360704664796</v>
+      </c>
+      <c r="E18" s="37">
+        <v>208.806759033595</v>
+      </c>
+      <c r="F18" s="37">
+        <v>226.06765407211699</v>
+      </c>
+      <c r="G18" s="37">
+        <v>392.86734368371702</v>
+      </c>
+      <c r="H18" s="37">
+        <v>391.55736926069602</v>
+      </c>
+      <c r="I18" s="37">
+        <v>391.55736926069602</v>
+      </c>
+      <c r="J18" s="37">
+        <v>391.55736926069602</v>
+      </c>
+      <c r="K18" s="39">
+        <v>391.55736926069602</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="37">
+        <v>3620.8448324163101</v>
+      </c>
+      <c r="E19" s="37">
+        <v>2311.15858694705</v>
+      </c>
+      <c r="F19" s="37">
+        <v>2343.2994179618399</v>
+      </c>
+      <c r="G19" s="37">
+        <v>4284.9699230713404</v>
+      </c>
+      <c r="H19" s="37">
+        <v>3659.2272904198899</v>
+      </c>
+      <c r="I19" s="37">
+        <v>3659.2272904198899</v>
+      </c>
+      <c r="J19" s="37">
+        <v>3659.2272904198899</v>
+      </c>
+      <c r="K19" s="39">
+        <v>3659.2272904198899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="37">
+        <v>1.13373577673032</v>
+      </c>
+      <c r="E20" s="37">
+        <v>2.4258179969420199</v>
+      </c>
+      <c r="F20" s="37">
+        <v>2.3873285971102698</v>
+      </c>
+      <c r="G20" s="37">
+        <v>1.4564750409017799</v>
+      </c>
+      <c r="H20" s="37">
+        <v>0.99721191005946297</v>
+      </c>
+      <c r="I20" s="37">
+        <v>0.99721191005946297</v>
+      </c>
+      <c r="J20" s="37">
+        <v>0.99721191005946297</v>
+      </c>
+      <c r="K20" s="39">
+        <v>0.99721191005946297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="37">
+        <v>0.67575877439752896</v>
+      </c>
+      <c r="E21" s="37">
+        <v>0.51712000434017502</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0.801477721483979</v>
+      </c>
+      <c r="G21" s="37">
+        <v>9.8010774605840997E-2</v>
+      </c>
+      <c r="H21" s="37">
+        <v>0.74159415955053198</v>
+      </c>
+      <c r="I21" s="37">
+        <v>0.74159415955053198</v>
+      </c>
+      <c r="J21" s="37">
+        <v>0.74159415955053198</v>
+      </c>
+      <c r="K21" s="39">
+        <v>0.74159415955053198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="36"/>
+      <c r="B22" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="37">
+        <v>3.8387980542432998</v>
+      </c>
+      <c r="E22" s="37">
+        <v>1.8776339003870799</v>
+      </c>
+      <c r="F22" s="37">
+        <v>3.3657208787845398</v>
+      </c>
+      <c r="G22" s="37">
+        <v>2.4178541756165899</v>
+      </c>
+      <c r="H22" s="37">
+        <v>1.56466211459187</v>
+      </c>
+      <c r="I22" s="37">
+        <v>1.56466211459187</v>
+      </c>
+      <c r="J22" s="37">
+        <v>1.56466211459187</v>
+      </c>
+      <c r="K22" s="39">
+        <v>1.56466211459187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="37">
+        <v>0.82317441160238602</v>
+      </c>
+      <c r="E23" s="37">
+        <v>0.63680145228157503</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0.85382760203728802</v>
+      </c>
+      <c r="G23" s="37">
+        <v>0.594424181188418</v>
+      </c>
+      <c r="H23" s="37">
+        <v>0.58201942471427504</v>
+      </c>
+      <c r="I23" s="37">
+        <v>0.58201942471427504</v>
+      </c>
+      <c r="J23" s="37">
+        <v>0.58201942471427504</v>
+      </c>
+      <c r="K23" s="39">
+        <v>0.58201942471427504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="37">
+        <v>2351.0358557609202</v>
+      </c>
+      <c r="E24" s="37">
+        <v>4305.6905785423696</v>
+      </c>
+      <c r="F24" s="37">
+        <v>5592.7916508867802</v>
+      </c>
+      <c r="G24" s="37">
+        <v>1093.0004954073299</v>
+      </c>
+      <c r="H24" s="37">
+        <v>5316.4232733114604</v>
+      </c>
+      <c r="I24" s="37">
+        <v>5316.4232733114604</v>
+      </c>
+      <c r="J24" s="37">
+        <v>5316.4232733114604</v>
+      </c>
+      <c r="K24" s="39">
+        <v>5316.4232733114604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="37">
+        <v>479.56427978543297</v>
+      </c>
+      <c r="E25" s="37">
+        <v>342.07526272382</v>
+      </c>
+      <c r="F25" s="37">
+        <v>629.09549703360005</v>
+      </c>
+      <c r="G25" s="37">
+        <v>1336.8970567521501</v>
+      </c>
+      <c r="H25" s="37">
+        <v>1431.3338377950799</v>
+      </c>
+      <c r="I25" s="37">
+        <v>1431.3338377950799</v>
+      </c>
+      <c r="J25" s="37">
+        <v>1431.3338377950799</v>
+      </c>
+      <c r="K25" s="39">
+        <v>1431.3338377950799</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="37">
+        <v>1.5209241133552001</v>
+      </c>
+      <c r="E26" s="37">
+        <v>1.4611356146706</v>
+      </c>
+      <c r="F26" s="37">
+        <v>1.17459338972312</v>
+      </c>
+      <c r="G26" s="37">
+        <v>1.17980028181748</v>
+      </c>
+      <c r="H26" s="37">
+        <v>0.97421919684422997</v>
+      </c>
+      <c r="I26" s="37">
+        <v>0.97421919684422997</v>
+      </c>
+      <c r="J26" s="37">
+        <v>0.97421919684422997</v>
+      </c>
+      <c r="K26" s="39">
+        <v>0.97421919684422997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="37">
+        <v>148.023377589456</v>
+      </c>
+      <c r="E27" s="37">
+        <v>196.39317107510001</v>
+      </c>
+      <c r="F27" s="37">
+        <v>170.37252984731199</v>
+      </c>
+      <c r="G27" s="37">
+        <v>285.26395874702098</v>
+      </c>
+      <c r="H27" s="37">
+        <v>203.71546054260199</v>
+      </c>
+      <c r="I27" s="37">
+        <v>203.71546054260199</v>
+      </c>
+      <c r="J27" s="37">
+        <v>203.71546054260199</v>
+      </c>
+      <c r="K27" s="39">
+        <v>203.71546054260199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C28" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D28" s="40">
+        <v>100000000</v>
+      </c>
+      <c r="E28" s="40">
+        <v>75000367</v>
+      </c>
+      <c r="F28" s="40">
+        <v>60000000</v>
+      </c>
+      <c r="G28" s="40">
+        <v>6.850054E+16</v>
+      </c>
+      <c r="H28" s="40">
+        <v>1000000</v>
+      </c>
+      <c r="I28" s="40">
+        <v>150000000</v>
+      </c>
+      <c r="J28" s="40">
+        <v>1000000</v>
+      </c>
+      <c r="K28" s="41">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="36"/>
+      <c r="B29" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="40">
+        <v>3000000</v>
+      </c>
+      <c r="E29" s="40">
+        <v>20000</v>
+      </c>
+      <c r="F29" s="40">
         <v>100000</v>
       </c>
-      <c r="E11" s="2">
-        <v>745550</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6000</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="G29" s="40">
+        <v>10000000000000</v>
+      </c>
+      <c r="H29" s="40">
         <v>100000</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I29" s="40">
         <v>100000</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J29" s="40">
         <v>100000</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K29" s="41">
         <v>100000</v>
       </c>
-      <c r="K11" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="47"/>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3000000</v>
-      </c>
-      <c r="E12" s="2">
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="43">
+        <v>1</v>
+      </c>
+      <c r="E30" s="43">
+        <v>2</v>
+      </c>
+      <c r="F30" s="43">
+        <v>4</v>
+      </c>
+      <c r="G30" s="43">
+        <v>1</v>
+      </c>
+      <c r="H30" s="43">
+        <v>2</v>
+      </c>
+      <c r="I30" s="43">
+        <v>2</v>
+      </c>
+      <c r="J30" s="43">
+        <v>2</v>
+      </c>
+      <c r="K30" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="49">
+        <v>10</v>
+      </c>
+      <c r="E31" s="49">
+        <v>10</v>
+      </c>
+      <c r="F31" s="49">
+        <v>12</v>
+      </c>
+      <c r="G31" s="49">
+        <v>12</v>
+      </c>
+      <c r="H31" s="49">
+        <v>12</v>
+      </c>
+      <c r="I31" s="49">
+        <v>12</v>
+      </c>
+      <c r="J31" s="49">
+        <v>12</v>
+      </c>
+      <c r="K31" s="50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="51"/>
+      <c r="B32" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="52">
+        <v>1</v>
+      </c>
+      <c r="E32" s="52">
+        <v>1</v>
+      </c>
+      <c r="F32" s="52">
+        <v>1</v>
+      </c>
+      <c r="G32" s="52">
+        <v>1</v>
+      </c>
+      <c r="H32" s="52">
+        <v>0.93571428571428561</v>
+      </c>
+      <c r="I32" s="52">
+        <v>0.93571428571428561</v>
+      </c>
+      <c r="J32" s="52">
+        <v>0.85</v>
+      </c>
+      <c r="K32" s="53">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="51"/>
+      <c r="B33" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="54">
+        <v>1</v>
+      </c>
+      <c r="E33" s="54">
+        <v>1</v>
+      </c>
+      <c r="F33" s="54">
+        <v>2</v>
+      </c>
+      <c r="G33" s="54">
+        <v>2</v>
+      </c>
+      <c r="H33" s="54">
+        <v>2</v>
+      </c>
+      <c r="I33" s="54">
+        <v>2</v>
+      </c>
+      <c r="J33" s="54">
+        <v>2</v>
+      </c>
+      <c r="K33" s="55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="51"/>
+      <c r="B34" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="52">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="52">
+        <v>3000</v>
+      </c>
+      <c r="F34" s="52">
+        <v>100000000</v>
+      </c>
+      <c r="G34" s="52">
+        <v>100000000</v>
+      </c>
+      <c r="H34" s="52">
+        <v>100000000</v>
+      </c>
+      <c r="I34" s="52">
+        <v>100000000</v>
+      </c>
+      <c r="J34" s="52">
+        <v>100000000</v>
+      </c>
+      <c r="K34" s="53">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="51"/>
+      <c r="B35" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="K35" s="53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="51"/>
+      <c r="B36" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="52">
+        <v>210000</v>
+      </c>
+      <c r="E36" s="52">
+        <v>210000</v>
+      </c>
+      <c r="F36" s="52">
+        <v>210000</v>
+      </c>
+      <c r="G36" s="52">
+        <v>210000</v>
+      </c>
+      <c r="H36" s="52">
+        <v>193846.15384615384</v>
+      </c>
+      <c r="I36" s="52">
+        <v>193846.15384615384</v>
+      </c>
+      <c r="J36" s="52">
+        <v>210000</v>
+      </c>
+      <c r="K36" s="53">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickBot="1">
+      <c r="A37" s="56"/>
+      <c r="B37" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="58">
+        <v>0.95</v>
+      </c>
+      <c r="E37" s="58">
+        <v>0.95</v>
+      </c>
+      <c r="F37" s="58">
+        <v>0.9</v>
+      </c>
+      <c r="G37" s="58">
+        <v>0.9</v>
+      </c>
+      <c r="H37" s="58">
+        <v>1</v>
+      </c>
+      <c r="I37" s="58">
+        <v>1</v>
+      </c>
+      <c r="J37" s="58">
+        <v>1</v>
+      </c>
+      <c r="K37" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="49">
+        <v>0.28844568430102241</v>
+      </c>
+      <c r="E38" s="49">
+        <v>3.7725248222562513E-2</v>
+      </c>
+      <c r="F38" s="49">
+        <v>8.8623039643821122E-2</v>
+      </c>
+      <c r="G38" s="49">
+        <v>0.1699248178375177</v>
+      </c>
+      <c r="H38" s="49">
+        <v>0.25194280534317759</v>
+      </c>
+      <c r="I38" s="49">
+        <v>0.25194280534317759</v>
+      </c>
+      <c r="J38" s="49">
+        <v>0.25194280534317759</v>
+      </c>
+      <c r="K38" s="50">
+        <v>0.25194280534317759</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="51"/>
+      <c r="B39" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="52">
+        <v>0.3524312690488518</v>
+      </c>
+      <c r="E39" s="52">
+        <v>0.105393651950856</v>
+      </c>
+      <c r="F39" s="52">
+        <v>0.16404956137862131</v>
+      </c>
+      <c r="G39" s="52">
+        <v>0.2471120972881847</v>
+      </c>
+      <c r="H39" s="52">
+        <v>0.32943610271353058</v>
+      </c>
+      <c r="I39" s="52">
+        <v>0.32943610271353058</v>
+      </c>
+      <c r="J39" s="52">
+        <v>0.32943610271353058</v>
+      </c>
+      <c r="K39" s="53">
+        <v>0.32943610271353058</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="51"/>
+      <c r="B40" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="52">
+        <v>0.29141001732272009</v>
+      </c>
+      <c r="E40" s="52">
+        <v>2.3467056952062752E-2</v>
+      </c>
+      <c r="F40" s="52">
+        <v>0.11880610219922259</v>
+      </c>
+      <c r="G40" s="52">
+        <v>0.1637841187500868</v>
+      </c>
+      <c r="H40" s="52">
+        <v>0.26550365984188579</v>
+      </c>
+      <c r="I40" s="52">
+        <v>0.26550365984188579</v>
+      </c>
+      <c r="J40" s="52">
+        <v>0.26550365984188579</v>
+      </c>
+      <c r="K40" s="53">
+        <v>0.26550365984188579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="51"/>
+      <c r="B41" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="52">
+        <v>0.30699574700308507</v>
+      </c>
+      <c r="E41" s="52">
+        <v>3.9494798580949668E-2</v>
+      </c>
+      <c r="F41" s="52">
+        <v>0.13692092754166901</v>
+      </c>
+      <c r="G41" s="52">
+        <v>0.1851239411251627</v>
+      </c>
+      <c r="H41" s="52">
+        <v>0.28584370944240489</v>
+      </c>
+      <c r="I41" s="52">
+        <v>0.28584370944240489</v>
+      </c>
+      <c r="J41" s="52">
+        <v>0.28584370944240489</v>
+      </c>
+      <c r="K41" s="53">
+        <v>0.28584370944240489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="51"/>
+      <c r="B42" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="52">
+        <v>0.32609131172459271</v>
+      </c>
+      <c r="E42" s="52">
+        <v>6.2120161017276132E-2</v>
+      </c>
+      <c r="F42" s="52">
+        <v>9.3792415037389887E-2</v>
+      </c>
+      <c r="G42" s="52">
+        <v>0.27910120198358263</v>
+      </c>
+      <c r="H42" s="52">
+        <v>0.32829933353293761</v>
+      </c>
+      <c r="I42" s="52">
+        <v>0.32829933353293761</v>
+      </c>
+      <c r="J42" s="52">
+        <v>0.32829933353293761</v>
+      </c>
+      <c r="K42" s="53">
+        <v>0.32829933353293761</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="51"/>
+      <c r="B43" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="52">
+        <v>0.34676199524840873</v>
+      </c>
+      <c r="E43" s="52">
+        <v>8.3699948253588174E-2</v>
+      </c>
+      <c r="F43" s="52">
+        <v>0.1191684353334459</v>
+      </c>
+      <c r="G43" s="52">
+        <v>0.30758163178369302</v>
+      </c>
+      <c r="H43" s="52">
+        <v>0.35401798023787567</v>
+      </c>
+      <c r="I43" s="52">
+        <v>0.35401798023787567</v>
+      </c>
+      <c r="J43" s="52">
+        <v>0.35401798023787567</v>
+      </c>
+      <c r="K43" s="53">
+        <v>0.35401798023787567</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="51"/>
+      <c r="B44" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="54">
+        <v>30000</v>
+      </c>
+      <c r="E44" s="54">
+        <v>1600000</v>
+      </c>
+      <c r="F44" s="54">
+        <v>40000</v>
+      </c>
+      <c r="G44" s="54">
+        <v>4000000</v>
+      </c>
+      <c r="H44" s="54">
+        <v>23000</v>
+      </c>
+      <c r="I44" s="54">
+        <v>23000</v>
+      </c>
+      <c r="J44" s="54">
+        <v>15000</v>
+      </c>
+      <c r="K44" s="55">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15" thickBot="1">
+      <c r="A45" s="56"/>
+      <c r="B45" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" s="58">
         <v>20000</v>
       </c>
-      <c r="F12" s="2">
-        <v>100000</v>
-      </c>
-      <c r="G12" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H12" s="2">
-        <v>100000</v>
-      </c>
-      <c r="I12" s="2">
-        <v>100000</v>
-      </c>
-      <c r="J12" s="2">
-        <v>100000</v>
-      </c>
-      <c r="K12" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="47"/>
-      <c r="B13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13">
+      <c r="E45" s="58">
+        <v>15000</v>
+      </c>
+      <c r="F45" s="58">
+        <v>18000</v>
+      </c>
+      <c r="G45" s="58">
+        <v>18000</v>
+      </c>
+      <c r="H45" s="58">
+        <v>12000</v>
+      </c>
+      <c r="I45" s="58">
+        <v>1200000</v>
+      </c>
+      <c r="J45" s="58">
+        <v>14000</v>
+      </c>
+      <c r="K45" s="59">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="49">
+        <v>36936.685005163112</v>
+      </c>
+      <c r="E46" s="49">
+        <v>37821.364677197205</v>
+      </c>
+      <c r="F46" s="49">
+        <v>43623.257989846839</v>
+      </c>
+      <c r="G46" s="49">
+        <v>43623.257989846839</v>
+      </c>
+      <c r="H46" s="49">
+        <v>33345.618407438931</v>
+      </c>
+      <c r="I46" s="49">
+        <v>33345.618407438931</v>
+      </c>
+      <c r="J46" s="49">
+        <v>697972.12783754943</v>
+      </c>
+      <c r="K46" s="50">
+        <v>697972.12783754943</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="51"/>
+      <c r="B47" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="52">
+        <v>27912.068979441065</v>
+      </c>
+      <c r="E47" s="52">
+        <v>8614.83610476576</v>
+      </c>
+      <c r="F47" s="52">
+        <v>23884.460803740978</v>
+      </c>
+      <c r="G47" s="52">
+        <v>23884.460803740978</v>
+      </c>
+      <c r="H47" s="52">
+        <v>48452.59500075617</v>
+      </c>
+      <c r="I47" s="52">
+        <v>48452.59500075617</v>
+      </c>
+      <c r="J47" s="52">
+        <v>10337.803325718913</v>
+      </c>
+      <c r="K47" s="53">
+        <v>10337.803325718913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="51"/>
+      <c r="B48" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="52">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
+      <c r="E48" s="52">
         <v>1</v>
       </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14">
-        <v>24.9397924881983</v>
-      </c>
-      <c r="E14">
-        <v>29.846033506748501</v>
-      </c>
-      <c r="F14">
-        <v>21.549071913738601</v>
-      </c>
-      <c r="G14">
-        <v>30.724628045371599</v>
-      </c>
-      <c r="H14">
-        <v>24.603567265875999</v>
-      </c>
-      <c r="I14">
-        <v>24.603567265875999</v>
-      </c>
-      <c r="J14">
-        <v>24.603567265875999</v>
-      </c>
-      <c r="K14">
-        <v>24.603567265875999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="48"/>
-      <c r="B15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <v>0.397534327540081</v>
-      </c>
-      <c r="E15">
-        <v>0.38745672969163403</v>
-      </c>
-      <c r="F15">
-        <v>0.27778552720397198</v>
-      </c>
-      <c r="G15">
-        <v>0.38853068564494597</v>
-      </c>
-      <c r="H15">
-        <v>0.39281645770158102</v>
-      </c>
-      <c r="I15">
-        <v>0.39281645770158102</v>
-      </c>
-      <c r="J15">
-        <v>0.39281645770158102</v>
-      </c>
-      <c r="K15">
-        <v>0.39281645770158102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="48"/>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
-        <v>310.53423258511901</v>
-      </c>
-      <c r="E16">
-        <v>311.82631932244198</v>
-      </c>
-      <c r="F16">
-        <v>262.54231664112598</v>
-      </c>
-      <c r="G16">
-        <v>334.01554867815503</v>
-      </c>
-      <c r="H16">
-        <v>217.83710715883799</v>
-      </c>
-      <c r="I16">
-        <v>217.83710715883799</v>
-      </c>
-      <c r="J16">
-        <v>217.83710715883799</v>
-      </c>
-      <c r="K16">
-        <v>217.83710715883799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="48"/>
-      <c r="B17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17">
-        <v>0.43852951083798603</v>
-      </c>
-      <c r="E17">
-        <v>0.27896020164795099</v>
-      </c>
-      <c r="F17">
-        <v>0.41639127372561502</v>
-      </c>
-      <c r="G17">
-        <v>0.36908011038102101</v>
-      </c>
-      <c r="H17">
-        <v>0.33759378483001701</v>
-      </c>
-      <c r="I17">
-        <v>0.33759378483001701</v>
-      </c>
-      <c r="J17">
-        <v>0.33759378483001701</v>
-      </c>
-      <c r="K17">
-        <v>0.33759378483001701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="48"/>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18">
-        <v>9592.8821295104699</v>
-      </c>
-      <c r="E18">
-        <v>13728.6250951821</v>
-      </c>
-      <c r="F18">
-        <v>9530.9428397424908</v>
-      </c>
-      <c r="G18">
-        <v>11844.471056845599</v>
-      </c>
-      <c r="H18">
-        <v>7039.1850549506698</v>
-      </c>
-      <c r="I18">
-        <v>7039.1850549506698</v>
-      </c>
-      <c r="J18">
-        <v>7039.1850549506698</v>
-      </c>
-      <c r="K18">
-        <v>7039.1850549506698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="48"/>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19">
-        <v>6.9859353305379797</v>
-      </c>
-      <c r="E19">
-        <v>4.8667038063889603</v>
-      </c>
-      <c r="F19">
-        <v>5.9682746322479998</v>
-      </c>
-      <c r="G19">
-        <v>7.6920989582716999</v>
-      </c>
-      <c r="H19">
-        <v>7.9973902757422897</v>
-      </c>
-      <c r="I19">
-        <v>7.9973902757422897</v>
-      </c>
-      <c r="J19">
-        <v>7.9973902757422897</v>
-      </c>
-      <c r="K19">
-        <v>7.9973902757422897</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="48"/>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20">
-        <v>0.36032232455732299</v>
-      </c>
-      <c r="E20">
-        <v>0.43263553136410199</v>
-      </c>
-      <c r="F20">
-        <v>0.311870213321776</v>
-      </c>
-      <c r="G20">
-        <v>0.34484796209278801</v>
-      </c>
-      <c r="H20">
-        <v>0.43685550941856799</v>
-      </c>
-      <c r="I20">
-        <v>0.43685550941856799</v>
-      </c>
-      <c r="J20">
-        <v>0.43685550941856799</v>
-      </c>
-      <c r="K20">
-        <v>0.43685550941856799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="48"/>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21">
-        <v>235.360704664796</v>
-      </c>
-      <c r="E21">
-        <v>208.806759033595</v>
-      </c>
-      <c r="F21">
-        <v>226.06765407211699</v>
-      </c>
-      <c r="G21">
-        <v>392.86734368371702</v>
-      </c>
-      <c r="H21">
-        <v>391.55736926069602</v>
-      </c>
-      <c r="I21">
-        <v>391.55736926069602</v>
-      </c>
-      <c r="J21">
-        <v>391.55736926069602</v>
-      </c>
-      <c r="K21">
-        <v>391.55736926069602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="48"/>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22">
-        <v>3620.8448324163101</v>
-      </c>
-      <c r="E22">
-        <v>2311.15858694705</v>
-      </c>
-      <c r="F22">
-        <v>2343.2994179618399</v>
-      </c>
-      <c r="G22">
-        <v>4284.9699230713404</v>
-      </c>
-      <c r="H22">
-        <v>3659.2272904198899</v>
-      </c>
-      <c r="I22">
-        <v>3659.2272904198899</v>
-      </c>
-      <c r="J22">
-        <v>3659.2272904198899</v>
-      </c>
-      <c r="K22">
-        <v>3659.2272904198899</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="48"/>
-      <c r="B23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23">
-        <v>1.13373577673032</v>
-      </c>
-      <c r="E23">
-        <v>2.4258179969420199</v>
-      </c>
-      <c r="F23">
-        <v>2.3873285971102698</v>
-      </c>
-      <c r="G23">
-        <v>1.4564750409017799</v>
-      </c>
-      <c r="H23">
-        <v>0.99721191005946297</v>
-      </c>
-      <c r="I23">
-        <v>0.99721191005946297</v>
-      </c>
-      <c r="J23">
-        <v>0.99721191005946297</v>
-      </c>
-      <c r="K23">
-        <v>0.99721191005946297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="48"/>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24">
-        <v>0.67575877439752896</v>
-      </c>
-      <c r="E24">
-        <v>0.51712000434017502</v>
-      </c>
-      <c r="F24">
-        <v>0.801477721483979</v>
-      </c>
-      <c r="G24">
-        <v>9.8010774605840997E-2</v>
-      </c>
-      <c r="H24">
-        <v>0.74159415955053198</v>
-      </c>
-      <c r="I24">
-        <v>0.74159415955053198</v>
-      </c>
-      <c r="J24">
-        <v>0.74159415955053198</v>
-      </c>
-      <c r="K24">
-        <v>0.74159415955053198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="48"/>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25">
-        <v>3.8387980542432998</v>
-      </c>
-      <c r="E25">
-        <v>1.8776339003870799</v>
-      </c>
-      <c r="F25">
-        <v>3.3657208787845398</v>
-      </c>
-      <c r="G25">
-        <v>2.4178541756165899</v>
-      </c>
-      <c r="H25">
-        <v>1.56466211459187</v>
-      </c>
-      <c r="I25">
-        <v>1.56466211459187</v>
-      </c>
-      <c r="J25">
-        <v>1.56466211459187</v>
-      </c>
-      <c r="K25">
-        <v>1.56466211459187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="48"/>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26">
-        <v>0.82317441160238602</v>
-      </c>
-      <c r="E26">
-        <v>0.63680145228157503</v>
-      </c>
-      <c r="F26">
-        <v>0.85382760203728802</v>
-      </c>
-      <c r="G26">
-        <v>0.594424181188418</v>
-      </c>
-      <c r="H26">
-        <v>0.58201942471427504</v>
-      </c>
-      <c r="I26">
-        <v>0.58201942471427504</v>
-      </c>
-      <c r="J26">
-        <v>0.58201942471427504</v>
-      </c>
-      <c r="K26">
-        <v>0.58201942471427504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="48"/>
-      <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27">
-        <v>2351.0358557609202</v>
-      </c>
-      <c r="E27">
-        <v>4305.6905785423696</v>
-      </c>
-      <c r="F27">
-        <v>5592.7916508867802</v>
-      </c>
-      <c r="G27">
-        <v>1093.0004954073299</v>
-      </c>
-      <c r="H27">
-        <v>5316.4232733114604</v>
-      </c>
-      <c r="I27">
-        <v>5316.4232733114604</v>
-      </c>
-      <c r="J27">
-        <v>5316.4232733114604</v>
-      </c>
-      <c r="K27">
-        <v>5316.4232733114604</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="48"/>
-      <c r="B28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28">
-        <v>479.56427978543297</v>
-      </c>
-      <c r="E28">
-        <v>342.07526272382</v>
-      </c>
-      <c r="F28">
-        <v>629.09549703360005</v>
-      </c>
-      <c r="G28">
-        <v>1336.8970567521501</v>
-      </c>
-      <c r="H28">
-        <v>1431.3338377950799</v>
-      </c>
-      <c r="I28">
-        <v>1431.3338377950799</v>
-      </c>
-      <c r="J28">
-        <v>1431.3338377950799</v>
-      </c>
-      <c r="K28">
-        <v>1431.3338377950799</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="48"/>
-      <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29">
-        <v>1.5209241133552001</v>
-      </c>
-      <c r="E29">
-        <v>1.4611356146706</v>
-      </c>
-      <c r="F29">
-        <v>1.17459338972312</v>
-      </c>
-      <c r="G29">
-        <v>1.17980028181748</v>
-      </c>
-      <c r="H29">
-        <v>0.97421919684422997</v>
-      </c>
-      <c r="I29">
-        <v>0.97421919684422997</v>
-      </c>
-      <c r="J29">
-        <v>0.97421919684422997</v>
-      </c>
-      <c r="K29">
-        <v>0.97421919684422997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="48"/>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30">
-        <v>148.023377589456</v>
-      </c>
-      <c r="E30">
-        <v>196.39317107510001</v>
-      </c>
-      <c r="F30">
-        <v>170.37252984731199</v>
-      </c>
-      <c r="G30">
-        <v>285.26395874702098</v>
-      </c>
-      <c r="H30">
-        <v>203.71546054260199</v>
-      </c>
-      <c r="I30">
-        <v>203.71546054260199</v>
-      </c>
-      <c r="J30">
-        <v>203.71546054260199</v>
-      </c>
-      <c r="K30">
-        <v>203.71546054260199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>12</v>
-      </c>
-      <c r="G31">
-        <v>12</v>
-      </c>
-      <c r="H31">
-        <v>12</v>
-      </c>
-      <c r="I31">
-        <v>12</v>
-      </c>
-      <c r="J31">
-        <v>12</v>
-      </c>
-      <c r="K31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="45"/>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32">
+      <c r="F48" s="52">
+        <v>0.94103602888102855</v>
+      </c>
+      <c r="G48" s="52">
+        <v>0.94103602888102855</v>
+      </c>
+      <c r="H48" s="52">
+        <v>0.93571428571428561</v>
+      </c>
+      <c r="I48" s="52">
+        <v>0.93571428571428561</v>
+      </c>
+      <c r="J48" s="52">
+        <v>0.85</v>
+      </c>
+      <c r="K48" s="53">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="51"/>
+      <c r="B49" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D49" s="52">
         <v>1</v>
       </c>
-      <c r="E32">
+      <c r="E49" s="52">
         <v>1</v>
       </c>
-      <c r="F32">
+      <c r="F49" s="52">
+        <v>0.94103602888102855</v>
+      </c>
+      <c r="G49" s="52">
+        <v>0.94103602888102855</v>
+      </c>
+      <c r="H49" s="52">
         <v>1</v>
       </c>
-      <c r="G32">
+      <c r="I49" s="52">
         <v>1</v>
       </c>
-      <c r="H32">
-        <v>0.93571428571428561</v>
-      </c>
-      <c r="I32">
-        <v>0.93571428571428561</v>
-      </c>
-      <c r="J32">
-        <v>0.85</v>
-      </c>
-      <c r="K32">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="45"/>
-      <c r="B33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="J49" s="52">
         <v>1</v>
       </c>
-      <c r="E33" s="2">
+      <c r="K49" s="53">
         <v>1</v>
       </c>
-      <c r="F33" s="2">
-        <v>2</v>
-      </c>
-      <c r="G33" s="2">
-        <v>2</v>
-      </c>
-      <c r="H33" s="2">
-        <v>2</v>
-      </c>
-      <c r="I33" s="2">
-        <v>2</v>
-      </c>
-      <c r="J33" s="2">
-        <v>2</v>
-      </c>
-      <c r="K33" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="45"/>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34">
-        <v>2000</v>
-      </c>
-      <c r="E34">
-        <v>3000</v>
-      </c>
-      <c r="F34">
-        <v>100000000</v>
-      </c>
-      <c r="G34">
-        <v>100000000</v>
-      </c>
-      <c r="H34">
-        <v>100000000</v>
-      </c>
-      <c r="I34">
-        <v>100000000</v>
-      </c>
-      <c r="J34">
-        <v>100000000</v>
-      </c>
-      <c r="K34">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="45"/>
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" t="s">
-        <v>113</v>
-      </c>
-      <c r="I35" t="s">
-        <v>113</v>
-      </c>
-      <c r="J35" t="s">
-        <v>113</v>
-      </c>
-      <c r="K35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="45"/>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36">
-        <v>210000</v>
-      </c>
-      <c r="E36">
-        <v>210000</v>
-      </c>
-      <c r="F36">
-        <v>210000</v>
-      </c>
-      <c r="G36">
-        <v>210000</v>
-      </c>
-      <c r="H36">
-        <v>193846.15384615384</v>
-      </c>
-      <c r="I36">
-        <v>193846.15384615384</v>
-      </c>
-      <c r="J36">
-        <v>210000</v>
-      </c>
-      <c r="K36">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="45"/>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2">
-        <v>1</v>
-      </c>
-      <c r="J37" s="2">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38">
-        <v>0.28844568430102241</v>
-      </c>
-      <c r="E38">
-        <v>3.7725248222562513E-2</v>
-      </c>
-      <c r="F38">
-        <v>8.8623039643821122E-2</v>
-      </c>
-      <c r="G38">
-        <v>0.1699248178375177</v>
-      </c>
-      <c r="H38">
-        <v>0.25194280534317759</v>
-      </c>
-      <c r="I38">
-        <v>0.25194280534317759</v>
-      </c>
-      <c r="J38">
-        <v>0.25194280534317759</v>
-      </c>
-      <c r="K38">
-        <v>0.25194280534317759</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="49"/>
-      <c r="B39" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39">
-        <v>0.3524312690488518</v>
-      </c>
-      <c r="E39">
-        <v>0.105393651950856</v>
-      </c>
-      <c r="F39">
-        <v>0.16404956137862131</v>
-      </c>
-      <c r="G39">
-        <v>0.2471120972881847</v>
-      </c>
-      <c r="H39">
-        <v>0.32943610271353058</v>
-      </c>
-      <c r="I39">
-        <v>0.32943610271353058</v>
-      </c>
-      <c r="J39">
-        <v>0.32943610271353058</v>
-      </c>
-      <c r="K39">
-        <v>0.32943610271353058</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="49"/>
-      <c r="B40" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40">
-        <v>0.29141001732272009</v>
-      </c>
-      <c r="E40">
-        <v>2.3467056952062752E-2</v>
-      </c>
-      <c r="F40">
-        <v>0.11880610219922259</v>
-      </c>
-      <c r="G40">
-        <v>0.1637841187500868</v>
-      </c>
-      <c r="H40">
-        <v>0.26550365984188579</v>
-      </c>
-      <c r="I40">
-        <v>0.26550365984188579</v>
-      </c>
-      <c r="J40">
-        <v>0.26550365984188579</v>
-      </c>
-      <c r="K40">
-        <v>0.26550365984188579</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="49"/>
-      <c r="B41" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41">
-        <v>0.30699574700308507</v>
-      </c>
-      <c r="E41">
-        <v>3.9494798580949668E-2</v>
-      </c>
-      <c r="F41">
-        <v>0.13692092754166901</v>
-      </c>
-      <c r="G41">
-        <v>0.1851239411251627</v>
-      </c>
-      <c r="H41">
-        <v>0.28584370944240489</v>
-      </c>
-      <c r="I41">
-        <v>0.28584370944240489</v>
-      </c>
-      <c r="J41">
-        <v>0.28584370944240489</v>
-      </c>
-      <c r="K41">
-        <v>0.28584370944240489</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="49"/>
-      <c r="B42" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42">
-        <v>0.32609131172459271</v>
-      </c>
-      <c r="E42">
-        <v>6.2120161017276132E-2</v>
-      </c>
-      <c r="F42">
-        <v>9.3792415037389887E-2</v>
-      </c>
-      <c r="G42">
-        <v>0.27910120198358263</v>
-      </c>
-      <c r="H42">
-        <v>0.32829933353293761</v>
-      </c>
-      <c r="I42">
-        <v>0.32829933353293761</v>
-      </c>
-      <c r="J42">
-        <v>0.32829933353293761</v>
-      </c>
-      <c r="K42">
-        <v>0.32829933353293761</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="49"/>
-      <c r="B43" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43">
-        <v>0.34676199524840873</v>
-      </c>
-      <c r="E43">
-        <v>8.3699948253588174E-2</v>
-      </c>
-      <c r="F43">
-        <v>0.1191684353334459</v>
-      </c>
-      <c r="G43">
-        <v>0.30758163178369302</v>
-      </c>
-      <c r="H43">
-        <v>0.35401798023787567</v>
-      </c>
-      <c r="I43">
-        <v>0.35401798023787567</v>
-      </c>
-      <c r="J43">
-        <v>0.35401798023787567</v>
-      </c>
-      <c r="K43">
-        <v>0.35401798023787567</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="49"/>
-      <c r="B44" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1600000</v>
-      </c>
-      <c r="F44" s="2">
-        <v>40000</v>
-      </c>
-      <c r="G44" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="H44" s="2">
-        <v>23000</v>
-      </c>
-      <c r="I44" s="2">
-        <v>23000</v>
-      </c>
-      <c r="J44" s="2">
-        <v>15000</v>
-      </c>
-      <c r="K44" s="2">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="49"/>
-      <c r="B45" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E45" s="2">
-        <v>15000</v>
-      </c>
-      <c r="F45" s="2">
-        <v>18000</v>
-      </c>
-      <c r="G45" s="2">
-        <v>18000</v>
-      </c>
-      <c r="H45" s="2">
-        <v>12000</v>
-      </c>
-      <c r="I45" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="J45" s="2">
-        <v>14000</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C46" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46">
-        <v>36936.685005163112</v>
-      </c>
-      <c r="E46">
-        <v>37821.364677197205</v>
-      </c>
-      <c r="F46">
-        <v>43623.257989846839</v>
-      </c>
-      <c r="G46">
-        <v>43623.257989846839</v>
-      </c>
-      <c r="H46">
-        <v>33345.618407438931</v>
-      </c>
-      <c r="I46">
-        <v>33345.618407438931</v>
-      </c>
-      <c r="J46">
-        <v>697972.12783754943</v>
-      </c>
-      <c r="K46">
-        <v>697972.12783754943</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="46"/>
-      <c r="B47" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47">
-        <v>27912.068979441065</v>
-      </c>
-      <c r="E47">
-        <v>8614.83610476576</v>
-      </c>
-      <c r="F47">
-        <v>23884.460803740978</v>
-      </c>
-      <c r="G47">
-        <v>23884.460803740978</v>
-      </c>
-      <c r="H47">
-        <v>48452.59500075617</v>
-      </c>
-      <c r="I47">
-        <v>48452.59500075617</v>
-      </c>
-      <c r="J47">
-        <v>10337.803325718913</v>
-      </c>
-      <c r="K47">
-        <v>10337.803325718913</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="46"/>
-      <c r="B48" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C48" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>0.94103602888102855</v>
-      </c>
-      <c r="G48">
-        <v>0.94103602888102855</v>
-      </c>
-      <c r="H48">
-        <v>0.93571428571428561</v>
-      </c>
-      <c r="I48">
-        <v>0.93571428571428561</v>
-      </c>
-      <c r="J48">
-        <v>0.85</v>
-      </c>
-      <c r="K48">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="46"/>
-      <c r="B49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C49" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0.94103602888102855</v>
-      </c>
-      <c r="G49">
-        <v>0.94103602888102855</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="46"/>
-      <c r="B50" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="52">
+        <v>1.875</v>
+      </c>
+      <c r="E50" s="52">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="F50" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="E50">
+      <c r="G50" s="52">
+        <v>6250000</v>
+      </c>
+      <c r="H50" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="F50">
+      <c r="I50" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="G50">
+      <c r="J50" s="52">
         <v>6.25E-2</v>
       </c>
-      <c r="H50">
+      <c r="K50" s="53">
         <v>6.25E-2</v>
       </c>
-      <c r="I50">
-        <v>6.25E-2</v>
-      </c>
-      <c r="J50">
-        <v>6.25E-2</v>
-      </c>
-      <c r="K50">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="46"/>
-      <c r="B51" t="s">
+    </row>
+    <row r="51" spans="1:11" ht="15" thickBot="1">
+      <c r="A51" s="56"/>
+      <c r="B51" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="D51">
-        <v>3.4722222222222225E-3</v>
-      </c>
-      <c r="E51">
-        <v>3.4722222222222225E-3</v>
-      </c>
-      <c r="F51">
-        <v>3.4722222222222225E-3</v>
-      </c>
-      <c r="G51">
-        <v>3.4722222222222225E-3</v>
-      </c>
-      <c r="H51">
-        <v>3.4722222222222225E-3</v>
-      </c>
-      <c r="I51">
-        <v>3.4722222222222225E-3</v>
-      </c>
-      <c r="J51">
-        <v>3.4722222222222225E-3</v>
-      </c>
-      <c r="K51">
-        <v>3.4722222222222225E-3</v>
+      <c r="D51" s="57">
+        <v>2.0558802442980002</v>
+      </c>
+      <c r="E51" s="57">
+        <v>2.5572152616191466</v>
+      </c>
+      <c r="F51" s="57">
+        <v>1.0648283115457</v>
+      </c>
+      <c r="G51" s="57">
+        <v>2713991002.3206472</v>
+      </c>
+      <c r="H51" s="57">
+        <v>3.5367267455312851E-2</v>
+      </c>
+      <c r="I51" s="57">
+        <v>5.3050901182969268</v>
+      </c>
+      <c r="J51" s="57">
+        <v>3.5367267455312851E-2</v>
+      </c>
+      <c r="K51" s="63">
+        <v>0.24757087218718993</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="66">
         <v>113.41744596149626</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="66">
         <v>833.31725218046654</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="66">
         <v>243.28327454063728</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="66">
         <v>296.41400768054854</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="66">
         <v>819.21525606875491</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="66">
         <v>1.7649457662778753E-4</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="66">
         <v>490.05188723678293</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="67">
         <v>1.0557847857785165E-4</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="45"/>
-      <c r="B53" s="21" t="s">
+      <c r="A53" s="68"/>
+      <c r="B53" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="70">
         <v>138.57671162372117</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="70">
         <v>2328.0522350128654</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="70">
         <v>450.34016706657667</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="70">
         <v>431.0582058329806</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="70">
         <v>1071.191855925985</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="70">
         <v>2.3078128940865741E-4</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="70">
         <v>640.78346527416727</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="71">
         <v>1.3805261263855048E-4</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="45"/>
-      <c r="B54" s="21" t="s">
+      <c r="A54" s="68"/>
+      <c r="B54" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="70">
         <v>27.508590218238286</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="70">
         <v>4.9746517960249812E-5</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="70">
         <v>22.774354232295515</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="70">
         <v>1.7215462233767611E-6</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="70">
         <v>65.180320153746422</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="70">
         <v>65.180320153746422</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="70">
         <v>270.9599348299364</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="71">
         <v>270.9599348299364</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="45"/>
-      <c r="B55" s="21" t="s">
+      <c r="A55" s="68"/>
+      <c r="B55" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="69" t="s">
         <v>129</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="70">
         <v>28.979855533577762</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="70">
         <v>8.3722842236122922E-5</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="70">
         <v>26.246847997920781</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="70">
         <v>1.9458505753353258E-6</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="70">
         <v>70.17373887232246</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="70">
         <v>70.17373887232246</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="70">
         <v>291.71798583938943</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="71">
         <v>291.71798583938943</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="45"/>
-      <c r="B56" s="21" t="s">
+      <c r="A56" s="68"/>
+      <c r="B56" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="70">
         <v>33.188236940419529</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="70">
         <v>2.3840485455620605E-4</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="70">
         <v>12.143948916517607</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="70">
         <v>7.3245114633579287E-6</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="70">
         <v>122.05177651855068</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="70">
         <v>122.05177651855068</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="70">
         <v>507.3792416689073</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="71">
         <v>507.3792416689073</v>
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="45"/>
-      <c r="B57" s="21" t="s">
+      <c r="A57" s="68"/>
+      <c r="B57" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="70">
         <v>35.292014372822351</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="70">
         <v>3.2122379696036455E-4</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="70">
         <v>15.429556756522256</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="70">
         <v>8.0719293643547873E-6</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="70">
         <v>131.61319257812892</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="70">
         <v>131.61319257812892</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="70">
         <v>547.12683214213871</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="71">
         <v>547.12683214213871</v>
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="45"/>
-      <c r="B58" t="s">
+      <c r="A58" s="68"/>
+      <c r="B58" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="D58">
-        <f>D12*4/6400000</f>
+      <c r="D58" s="70">
+        <f>D29*4/6400000</f>
         <v>1.875</v>
       </c>
-      <c r="E58">
-        <f>E12*4/6400000</f>
+      <c r="E58" s="70">
+        <f t="shared" ref="E58:K58" si="0">E29*4/6400000</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F58">
-        <f t="shared" ref="F58:K58" si="0">F12*4/6400000</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="70">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="H58">
+      <c r="G58" s="70">
+        <f t="shared" si="0"/>
+        <v>6250000</v>
+      </c>
+      <c r="H58" s="70">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="70">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="70">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="71">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="45"/>
-      <c r="B59" t="s">
+      <c r="A59" s="68"/>
+      <c r="B59" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="D59">
-        <f>0.4*D11*D30/(450*6400000)</f>
-        <v>2.0558802442980002E-3</v>
-      </c>
-      <c r="E59">
-        <f>0.5*E11*E30/(450*6400000)</f>
-        <v>2.542030012066681E-2</v>
-      </c>
-      <c r="F59">
-        <f>0.3*F11*F30/(450*6400000)</f>
-        <v>1.0648283115457E-4</v>
-      </c>
-      <c r="G59">
-        <f>0.4*G11*G30/(450*6400000)</f>
-        <v>3.9619994270419581E-3</v>
-      </c>
-      <c r="H59">
-        <f>0.5*H11*H30/(450*6400000)</f>
-        <v>3.5367267455312843E-3</v>
-      </c>
-      <c r="I59">
-        <f t="shared" ref="I59:K59" si="1">0.5*I11*I30/(450*6400000)</f>
-        <v>3.5367267455312843E-3</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="1"/>
-        <v>3.5367267455312843E-3</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="1"/>
-        <v>3.5367267455312843E-3</v>
+      <c r="D59" s="70">
+        <f>0.4*D28*D27/(450*6400000)</f>
+        <v>2.0558802442980002</v>
+      </c>
+      <c r="E59" s="70">
+        <f>0.5*E28*E27/(450*6400000)</f>
+        <v>2.5572152616191466</v>
+      </c>
+      <c r="F59" s="70">
+        <f>0.3*F28*F27/(450*6400000)</f>
+        <v>1.0648283115457</v>
+      </c>
+      <c r="G59" s="70">
+        <f t="shared" ref="E59:K59" si="1">0.4*G28*G27/(450*6400000)</f>
+        <v>2713991002.3206472</v>
+      </c>
+      <c r="H59" s="70">
+        <f>0.5*H28*H27/(450*6400000)</f>
+        <v>3.5367267455312851E-2</v>
+      </c>
+      <c r="I59" s="70">
+        <f t="shared" ref="I59:K59" si="2">0.5*I28*I27/(450*6400000)</f>
+        <v>5.3050901182969268</v>
+      </c>
+      <c r="J59" s="70">
+        <f t="shared" si="2"/>
+        <v>3.5367267455312851E-2</v>
+      </c>
+      <c r="K59" s="71">
+        <f t="shared" si="2"/>
+        <v>0.24757087218718993</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="45"/>
-      <c r="B60" s="21" t="s">
+      <c r="A60" s="68"/>
+      <c r="B60" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="70">
         <v>1.7663920846460137</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="70">
         <v>1.5156812421936006</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="70">
         <v>1.5156812421936006</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="70">
         <v>1.5156812421936006</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="70">
         <v>1.2880813717219535</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="70">
         <v>12.880813717219535</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="70">
         <v>1.3367052112299087</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="71">
         <v>13.367052112299087</v>
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="45"/>
-      <c r="B61" s="21" t="s">
+      <c r="A61" s="68"/>
+      <c r="B61" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="70">
         <v>2.0583891146458879</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="70">
         <v>16.07819005657629</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="70">
         <v>2.3206868393115712</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="70">
         <v>23.206868393115712</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="70">
         <v>1.8316037112550809</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="70">
         <v>1.8316037112550809</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="70">
         <v>1.4211246522764018</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="71">
         <v>1.4211246522764018</v>
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="45"/>
-      <c r="B62" s="21" t="s">
+      <c r="A62" s="68"/>
+      <c r="B62" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="70">
         <v>173677.03908993362</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="70">
         <v>177836.82078015452</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="70">
         <v>194321.78559113594</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="70">
         <v>194321.78559113594</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="70">
         <v>154434.00040212876</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="70">
         <v>154434.00040212876</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="70">
         <v>2936418.093377165</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="71">
         <v>2936418.093377165</v>
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="45"/>
-      <c r="B63" t="s">
+      <c r="A63" s="68"/>
+      <c r="B63" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="70">
         <v>131243.11222151326</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="70">
         <v>40507.133401701627</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="70">
         <v>106394.41630757345</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="70">
         <v>106394.41630757345</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="70">
         <v>224399.13947319894</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="70">
         <v>224399.13947319894</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="70">
         <v>43491.869547090173</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="71">
         <v>43491.869547090173</v>
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="45"/>
-      <c r="B64" t="s">
+      <c r="A64" s="68"/>
+      <c r="B64" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="70">
         <v>36936.685005163112</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="70">
         <v>37821.364677197205</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="70">
         <v>43623.257989846839</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="70">
         <v>43623.257989846839</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="70">
         <v>33345.618407438931</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="70">
         <v>33345.618407438931</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="70">
         <v>697972.12783754943</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="71">
         <v>697972.12783754943</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="45"/>
-      <c r="B65" t="s">
+      <c r="A65" s="68"/>
+      <c r="B65" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="70">
         <v>27912.068979441065</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="70">
         <v>8614.83610476576</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="70">
         <v>23884.460803740978</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="70">
         <v>23884.460803740978</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="70">
         <v>48452.59500075617</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="70">
         <v>48452.59500075617</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="70">
         <v>10337.803325718913</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="71">
         <v>10337.803325718913</v>
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="45"/>
-      <c r="B66" t="s">
+      <c r="A66" s="68"/>
+      <c r="B66" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D66">
-        <v>79492.359230020054</v>
-      </c>
-      <c r="E66">
-        <v>2021908.5166499012</v>
-      </c>
-      <c r="F66">
-        <v>227255.27118607194</v>
-      </c>
-      <c r="G66">
-        <v>10514333.178949561</v>
-      </c>
-      <c r="H66">
-        <v>44052.844083202785</v>
-      </c>
-      <c r="I66">
-        <v>44052.844083202785</v>
-      </c>
-      <c r="J66">
-        <v>546276.2822016303</v>
-      </c>
-      <c r="K66">
-        <v>546276.2822016303</v>
+      <c r="D66" s="70">
+        <f>(D46*D49) / (1.1 * ((D51*D54)^(3/10)))</f>
+        <v>10007.495107814289</v>
+      </c>
+      <c r="E66" s="70">
+        <f t="shared" ref="E66:K66" si="3">(E46*E49) / (1.1 * ((E51*E54)^(3/10)))</f>
+        <v>506973.80172247218</v>
+      </c>
+      <c r="F66" s="70">
+        <f t="shared" si="3"/>
+        <v>14338.838242669011</v>
+      </c>
+      <c r="G66" s="70">
+        <f t="shared" si="3"/>
+        <v>2958.5133703862093</v>
+      </c>
+      <c r="H66" s="70">
+        <f t="shared" si="3"/>
+        <v>23595.581895621021</v>
+      </c>
+      <c r="I66" s="70">
+        <f t="shared" si="3"/>
+        <v>5248.1146533777273</v>
+      </c>
+      <c r="J66" s="70">
+        <f t="shared" si="3"/>
+        <v>322101.99843861908</v>
+      </c>
+      <c r="K66" s="71">
+        <f t="shared" si="3"/>
+        <v>179665.21743890378</v>
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="45"/>
-      <c r="B67" t="s">
+      <c r="A67" s="68"/>
+      <c r="B67" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="D67">
-        <v>75139.903338948396</v>
-      </c>
-      <c r="E67">
-        <v>1263559.7389882246</v>
-      </c>
-      <c r="F67">
-        <v>274435.19536807731</v>
-      </c>
-      <c r="G67">
-        <v>6809633.5607350003</v>
-      </c>
-      <c r="H67">
-        <v>36496.033557872484</v>
-      </c>
-      <c r="I67">
-        <v>36496.033557872484</v>
-      </c>
-      <c r="J67">
-        <v>452568.2266835164</v>
-      </c>
-      <c r="K67">
-        <v>452568.2266835164</v>
+      <c r="D67" s="70">
+        <f>D46/(1.1*((D56*D51)^(3/10)))*D48</f>
+        <v>9459.5533753159507</v>
+      </c>
+      <c r="E67" s="70">
+        <f t="shared" ref="E67:K67" si="4">E46/(1.1*((E56*E51)^(3/10)))*E48</f>
+        <v>316825.25658466032</v>
+      </c>
+      <c r="F67" s="70">
+        <f t="shared" si="4"/>
+        <v>17315.690210134519</v>
+      </c>
+      <c r="G67" s="70">
+        <f t="shared" si="4"/>
+        <v>1916.0884094104665</v>
+      </c>
+      <c r="H67" s="70">
+        <f t="shared" si="4"/>
+        <v>18291.346097238205</v>
+      </c>
+      <c r="I67" s="70">
+        <f t="shared" si="4"/>
+        <v>4068.349825300751</v>
+      </c>
+      <c r="J67" s="70">
+        <f t="shared" si="4"/>
+        <v>226821.41755911187</v>
+      </c>
+      <c r="K67" s="71">
+        <f t="shared" si="4"/>
+        <v>126518.67887533165</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="45"/>
-      <c r="B68" t="s">
+      <c r="A68" s="68"/>
+      <c r="B68" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="70">
+        <f>D47*D49/(1.1*(D52*D50)^(3/10))</f>
         <v>5082.706170065776</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="70">
+        <f t="shared" ref="E68:K68" si="5">E47*E49/(1.1*(E52*E50)^(3/10))</f>
         <v>3877.3786847692313</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="70">
+        <f t="shared" si="5"/>
         <v>9030.9060985594551</v>
       </c>
-      <c r="G68">
-        <v>8511.2899449900906</v>
-      </c>
-      <c r="H68">
+      <c r="G68" s="70">
+        <f t="shared" si="5"/>
+        <v>33.884055577604357</v>
+      </c>
+      <c r="H68" s="70">
+        <f t="shared" si="5"/>
         <v>13525.114236038917</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="70">
+        <f t="shared" si="5"/>
         <v>1352511.4236038916</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="70">
+        <f t="shared" si="5"/>
         <v>3366.6576458050927</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="71">
+        <f t="shared" si="5"/>
         <v>336665.76458050928</v>
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="45"/>
-      <c r="B69" s="21" t="s">
+      <c r="A69" s="68"/>
+      <c r="B69" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="70">
         <v>117384.40741471344</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="70">
         <v>252354.58552319254</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="70">
         <v>193571.8445231849</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="70">
         <v>128396.75895488853</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="70">
         <v>119878.59083757727</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="70">
         <v>119878.59083757727</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="70">
         <v>119878.59083757727</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="71">
         <v>119878.59083757727</v>
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="45"/>
-      <c r="B70" s="21" t="s">
+      <c r="A70" s="68"/>
+      <c r="B70" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="70">
         <v>120064.53438319845</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="70">
         <v>301539.86717319238</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="70">
         <v>172074.95128440741</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="70">
         <v>168952.6772995271</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="70">
         <v>135771.95366221218</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="70">
         <v>135771.95366221218</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="70">
         <v>135771.95366221218</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="71">
         <v>135771.95366221218</v>
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="45"/>
-      <c r="B71" s="21" t="s">
+      <c r="A71" s="68"/>
+      <c r="B71" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="70">
         <v>120064.53438319845</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="70">
         <v>301539.86717319238</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="70">
         <v>193571.8445231849</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="70">
         <v>168952.6772995271</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="70">
         <v>135771.95366221218</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="70">
         <v>135771.95366221218</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="70">
         <v>135771.95366221218</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="71">
         <v>135771.95366221218</v>
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="45"/>
-      <c r="B72" s="21" t="s">
+      <c r="A72" s="68"/>
+      <c r="B72" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="70">
         <v>1</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="70">
         <v>1</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="70">
         <v>0.94103602888102855</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="70">
         <v>0.94103602888102855</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="70">
         <v>0.93571428571428561</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="70">
         <v>0.93571428571428561</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="70">
         <v>0.85</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="71">
         <v>0.85</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="45"/>
-      <c r="B73" t="s">
+    <row r="73" spans="1:11" ht="15" thickBot="1">
+      <c r="A73" s="72"/>
+      <c r="B73" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="73">
         <v>1</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="73">
         <v>1</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="73">
         <v>0.94103602888102855</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="73">
         <v>0.94103602888102855</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="73">
         <v>1</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="73">
         <v>1</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="73">
         <v>1</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="74">
         <v>1</v>
       </c>
     </row>
@@ -4274,10 +4428,10 @@
   <mergeCells count="6">
     <mergeCell ref="A52:A73"/>
     <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A1:A13"/>
-    <mergeCell ref="A14:A30"/>
+    <mergeCell ref="A1:A10"/>
     <mergeCell ref="A31:A37"/>
     <mergeCell ref="A38:A45"/>
+    <mergeCell ref="A11:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4310,271 +4464,271 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.453125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="120">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:9" ht="98">
+      <c r="A2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="18" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="9">
         <v>0</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="9">
         <v>360</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="9">
         <v>125</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="9">
         <v>210000</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="19">
         <v>0.3</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="9">
         <v>410</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="9">
         <v>145</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="9">
         <v>210000</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="19">
         <v>0.3</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="9">
         <v>520</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="9">
         <v>175</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="9">
         <v>210000</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="19">
         <v>0.3</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="9">
         <v>760</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="9">
         <v>225</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="9">
         <v>210000</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="19">
         <v>0.3</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="9">
         <v>520</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="9">
         <v>155</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="9">
         <v>210000</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="19">
         <v>0.3</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="9">
         <v>0</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="9">
         <v>640</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="9">
         <v>190</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="9">
         <v>210000</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="19">
         <v>0.3</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="9">
         <v>870</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="9">
         <v>260</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="9">
         <v>210000</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="19">
         <v>0.3</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4593,335 +4747,335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:9" ht="112">
+      <c r="A2" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>1.6552</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>520</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="10">
         <v>1000</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="10">
         <v>210000</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>0.2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>0.70599999999999996</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>600</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="12">
         <v>210</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="13">
         <v>177000</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>0.2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>0.70699999999999996</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>700</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="11">
         <v>245</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="10">
         <v>180000</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>0.2</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>1.7218</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>650</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="12">
         <v>190</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="13">
         <v>210000</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>0.2</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>1.7224999999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>700</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="11">
         <v>210</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="10">
         <v>180000</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>0.2</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>1.7224999999999999</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>750</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="12">
         <v>225</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="13">
         <v>210000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>0.2</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>1.6956</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="11">
         <v>295</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="10">
         <v>210000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>0.2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>1.7224999999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>420</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="12">
         <v>255</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="13">
         <v>210000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>0.2</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="8">
         <v>1.7224999999999999</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="7">
         <v>420</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="11">
         <v>250</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="14">
         <v>210000</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>0.2</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="6">
         <v>10</v>
       </c>
     </row>
@@ -4942,39 +5096,39 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="28" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5062,33 +5216,33 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="30" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="28" t="s">
         <v>158</v>
       </c>
     </row>

--- a/tests/testdata/test_geometry_computation.xlsx
+++ b/tests/testdata/test_geometry_computation.xlsx
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="174">
   <si>
     <t>f_y</t>
   </si>
@@ -637,6 +637,36 @@
   </si>
   <si>
     <t>Stacker Crane (SC) Configuration</t>
+  </si>
+  <si>
+    <t>F_sd_s_w</t>
+  </si>
+  <si>
+    <t>F_sd_s_r</t>
+  </si>
+  <si>
+    <t>Bemessungskontaktkraft-Rad_s</t>
+  </si>
+  <si>
+    <t>Bemessungskontaktkraft-Schiene_s</t>
+  </si>
+  <si>
+    <t>k_c_rail_preds_expected</t>
+  </si>
+  <si>
+    <t>k_c_rail_upper_expected</t>
+  </si>
+  <si>
+    <t>k_c_wf_preds_expected</t>
+  </si>
+  <si>
+    <t>k_c_wf_upper_expected</t>
+  </si>
+  <si>
+    <t>k_c_wr_preds_expected</t>
+  </si>
+  <si>
+    <t>k_c_wr_upper_expected</t>
   </si>
 </sst>
 </file>
@@ -647,7 +677,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -724,6 +754,20 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -954,7 +998,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1049,133 +1093,184 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1946,2492 +2041,2805 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" customWidth="1"/>
-    <col min="4" max="6" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" style="80" customWidth="1"/>
+    <col min="4" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.81640625" customWidth="1"/>
+    <col min="7" max="7" width="28.90625" customWidth="1"/>
     <col min="8" max="8" width="17.1796875" customWidth="1"/>
     <col min="9" max="11" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="35" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="36">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="36">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="36">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="36">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="36">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="36">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="36">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K3" s="41">
+      <c r="K3" s="37">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="36">
         <v>0.95</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="36">
         <v>0.95</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="36">
         <v>0.9</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="36">
         <v>0.9</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="36">
         <v>1</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="36">
         <v>1</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="36">
         <v>1</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="36">
         <v>1</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="36">
         <v>1</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="36">
         <v>2</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="36">
         <v>2</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="36">
         <v>2</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="36">
         <v>2</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="36">
         <v>2</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="37">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="36">
         <v>1</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="36">
         <v>1</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="36">
         <v>1</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="36">
         <v>1</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="36">
         <v>1</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="36">
         <v>1</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="36">
         <v>1</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="88"/>
+      <c r="B7" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="37" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="36">
         <v>30000</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="36">
         <v>1600000</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="36">
         <v>40000</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="36">
         <v>4000000</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="36">
         <v>23000</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="36">
         <v>23000</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="36">
         <v>15000</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="37">
         <v>15000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="88"/>
+      <c r="B10" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="36">
         <v>20000</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="36">
         <v>15000</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="36">
         <v>18000</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="36">
         <v>18000</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="36">
         <v>12000</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="36">
         <v>1200000</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="36">
         <v>14000</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="37">
         <v>1400000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:11">
+      <c r="A11" s="88"/>
+      <c r="B11" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="36">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="36">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="36">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="36">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="36">
+        <v>10000</v>
+      </c>
+      <c r="I11" s="36">
+        <v>10000</v>
+      </c>
+      <c r="J11" s="36">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="37">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1">
+      <c r="A12" s="89"/>
+      <c r="B12" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="39">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="39">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="39">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="39">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="39">
+        <v>10000</v>
+      </c>
+      <c r="I12" s="39">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="39">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="40">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1">
+      <c r="A13" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B13" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C13" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D13" s="34">
         <v>24.9397924881983</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E13" s="34">
         <v>29.846033506748501</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F13" s="34">
         <v>21.549071913738601</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G13" s="34">
         <v>30.724628045371599</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H13" s="34">
         <v>24.603567265875999</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I13" s="34">
         <v>24.603567265875999</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J13" s="34">
         <v>24.603567265875999</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K13" s="35">
         <v>24.603567265875999</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="88"/>
+      <c r="B14" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C14" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D14" s="34">
         <v>0.397534327540081</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E14" s="34">
         <v>0.38745672969163403</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F14" s="34">
         <v>0.27778552720397198</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G14" s="34">
         <v>0.38853068564494597</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H14" s="34">
         <v>0.39281645770158102</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I14" s="34">
         <v>0.39281645770158102</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J14" s="34">
         <v>0.39281645770158102</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K14" s="35">
         <v>0.39281645770158102</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="88"/>
+      <c r="B15" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C15" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D15" s="34">
         <v>310.53423258511901</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E15" s="34">
         <v>311.82631932244198</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F15" s="34">
         <v>262.54231664112598</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G15" s="34">
         <v>334.01554867815503</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H15" s="34">
         <v>217.83710715883799</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I15" s="34">
         <v>217.83710715883799</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J15" s="34">
         <v>217.83710715883799</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K15" s="35">
         <v>217.83710715883799</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" s="88"/>
+      <c r="B16" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C16" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D16" s="34">
         <v>0.43852951083798603</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E16" s="34">
         <v>0.27896020164795099</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F16" s="34">
         <v>0.41639127372561502</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G16" s="34">
         <v>0.36908011038102101</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H16" s="34">
         <v>0.33759378483001701</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I16" s="34">
         <v>0.33759378483001701</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J16" s="34">
         <v>0.33759378483001701</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K16" s="35">
         <v>0.33759378483001701</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="88"/>
+      <c r="B17" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C17" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D17" s="34">
         <v>9592.8821295104699</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E17" s="34">
         <v>13728.6250951821</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F17" s="34">
         <v>9530.9428397424908</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G17" s="34">
         <v>11844.471056845599</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H17" s="34">
         <v>7039.1850549506698</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I17" s="34">
         <v>7039.1850549506698</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J17" s="34">
         <v>7039.1850549506698</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K17" s="35">
         <v>7039.1850549506698</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" s="88"/>
+      <c r="B18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C18" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D18" s="34">
         <v>6.9859353305379797</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E18" s="34">
         <v>4.8667038063889603</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F18" s="34">
         <v>5.9682746322479998</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G18" s="34">
         <v>7.6920989582716999</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H18" s="34">
         <v>7.9973902757422897</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I18" s="34">
         <v>7.9973902757422897</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J18" s="34">
         <v>7.9973902757422897</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K18" s="35">
         <v>7.9973902757422897</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="88"/>
+      <c r="B19" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C19" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D19" s="34">
         <v>0.36032232455732299</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E19" s="34">
         <v>0.43263553136410199</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F19" s="34">
         <v>0.311870213321776</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G19" s="34">
         <v>0.34484796209278801</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H19" s="34">
         <v>0.43685550941856799</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I19" s="34">
         <v>0.43685550941856799</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J19" s="34">
         <v>0.43685550941856799</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K19" s="35">
         <v>0.43685550941856799</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="88"/>
+      <c r="B20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C20" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D20" s="34">
         <v>235.360704664796</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E20" s="34">
         <v>208.806759033595</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F20" s="34">
         <v>226.06765407211699</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G20" s="34">
         <v>392.86734368371702</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H20" s="34">
         <v>391.55736926069602</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I20" s="34">
         <v>391.55736926069602</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J20" s="34">
         <v>391.55736926069602</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K20" s="35">
         <v>391.55736926069602</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" s="88"/>
+      <c r="B21" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C21" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D21" s="34">
         <v>3620.8448324163101</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E21" s="34">
         <v>2311.15858694705</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F21" s="34">
         <v>2343.2994179618399</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G21" s="34">
         <v>4284.9699230713404</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H21" s="34">
         <v>3659.2272904198899</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I21" s="34">
         <v>3659.2272904198899</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J21" s="34">
         <v>3659.2272904198899</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K21" s="35">
         <v>3659.2272904198899</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="88"/>
+      <c r="B22" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C22" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D22" s="34">
         <v>1.13373577673032</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E22" s="34">
         <v>2.4258179969420199</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F22" s="34">
         <v>2.3873285971102698</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G22" s="34">
         <v>1.4564750409017799</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H22" s="34">
         <v>0.99721191005946297</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I22" s="34">
         <v>0.99721191005946297</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J22" s="34">
         <v>0.99721191005946297</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K22" s="35">
         <v>0.99721191005946297</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37" t="s">
+    <row r="23" spans="1:11">
+      <c r="A23" s="88"/>
+      <c r="B23" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C23" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D23" s="34">
         <v>0.67575877439752896</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E23" s="34">
         <v>0.51712000434017502</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F23" s="34">
         <v>0.801477721483979</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G23" s="34">
         <v>9.8010774605840997E-2</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H23" s="34">
         <v>0.74159415955053198</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I23" s="34">
         <v>0.74159415955053198</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J23" s="34">
         <v>0.74159415955053198</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K23" s="35">
         <v>0.74159415955053198</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="88"/>
+      <c r="B24" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C24" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D24" s="34">
         <v>3.8387980542432998</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E24" s="34">
         <v>1.8776339003870799</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F24" s="34">
         <v>3.3657208787845398</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G24" s="34">
         <v>2.4178541756165899</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H24" s="34">
         <v>1.56466211459187</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I24" s="34">
         <v>1.56466211459187</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J24" s="34">
         <v>1.56466211459187</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K24" s="35">
         <v>1.56466211459187</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="88"/>
+      <c r="B25" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C25" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D25" s="34">
         <v>0.82317441160238602</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E25" s="34">
         <v>0.63680145228157503</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F25" s="34">
         <v>0.85382760203728802</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G25" s="34">
         <v>0.594424181188418</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H25" s="34">
         <v>0.58201942471427504</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I25" s="34">
         <v>0.58201942471427504</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J25" s="34">
         <v>0.58201942471427504</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K25" s="35">
         <v>0.58201942471427504</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="88"/>
+      <c r="B26" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C26" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D26" s="34">
         <v>2351.0358557609202</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E26" s="34">
         <v>4305.6905785423696</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F26" s="34">
         <v>5592.7916508867802</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G26" s="34">
         <v>1093.0004954073299</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H26" s="34">
         <v>5316.4232733114604</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I26" s="34">
         <v>5316.4232733114604</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J26" s="34">
         <v>5316.4232733114604</v>
       </c>
-      <c r="K24" s="39">
+      <c r="K26" s="35">
         <v>5316.4232733114604</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" s="88"/>
+      <c r="B27" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C27" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D27" s="34">
         <v>479.56427978543297</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E27" s="34">
         <v>342.07526272382</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F27" s="34">
         <v>629.09549703360005</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G27" s="34">
         <v>1336.8970567521501</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H27" s="34">
         <v>1431.3338377950799</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I27" s="34">
         <v>1431.3338377950799</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J27" s="34">
         <v>1431.3338377950799</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K27" s="35">
         <v>1431.3338377950799</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37" t="s">
+    <row r="28" spans="1:11">
+      <c r="A28" s="88"/>
+      <c r="B28" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C28" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D28" s="34">
         <v>1.5209241133552001</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E28" s="34">
         <v>1.4611356146706</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F28" s="34">
         <v>1.17459338972312</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G28" s="34">
         <v>1.17980028181748</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H28" s="34">
         <v>0.97421919684422997</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I28" s="34">
         <v>0.97421919684422997</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J28" s="34">
         <v>0.97421919684422997</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K28" s="35">
         <v>0.97421919684422997</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37" t="s">
+    <row r="29" spans="1:11">
+      <c r="A29" s="88"/>
+      <c r="B29" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C29" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D29" s="34">
         <v>148.023377589456</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E29" s="34">
         <v>196.39317107510001</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F29" s="34">
         <v>170.37252984731199</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G29" s="34">
         <v>285.26395874702098</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H29" s="34">
         <v>203.71546054260199</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I29" s="34">
         <v>203.71546054260199</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J29" s="34">
         <v>203.71546054260199</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K29" s="35">
         <v>203.71546054260199</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37" t="s">
+    <row r="30" spans="1:11">
+      <c r="A30" s="88"/>
+      <c r="B30" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C30" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D30" s="36">
         <v>100000000</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E30" s="36">
         <v>75000367</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F30" s="36">
         <v>60000000</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G30" s="36">
         <v>6.850054E+16</v>
       </c>
-      <c r="H28" s="40">
+      <c r="H30" s="36">
         <v>1000000</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I30" s="36">
         <v>150000000</v>
       </c>
-      <c r="J28" s="40">
+      <c r="J30" s="36">
         <v>1000000</v>
       </c>
-      <c r="K28" s="41">
+      <c r="K30" s="37">
         <v>7000000</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37" t="s">
+    <row r="31" spans="1:11">
+      <c r="A31" s="88"/>
+      <c r="B31" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C31" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D31" s="36">
         <v>3000000</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E31" s="36">
         <v>20000</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F31" s="36">
         <v>100000</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G31" s="36">
         <v>10000000000000</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H31" s="36">
         <v>100000</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I31" s="36">
         <v>100000</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J31" s="36">
         <v>100000</v>
       </c>
-      <c r="K29" s="41">
+      <c r="K31" s="37">
         <v>100000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43" t="s">
+    <row r="32" spans="1:11" ht="15" thickBot="1">
+      <c r="A32" s="89"/>
+      <c r="B32" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C32" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D32" s="38">
         <v>1</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E32" s="38">
         <v>2</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F32" s="38">
         <v>4</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G32" s="38">
         <v>1</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H32" s="38">
         <v>2</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I32" s="38">
         <v>2</v>
       </c>
-      <c r="J30" s="43">
+      <c r="J32" s="38">
         <v>2</v>
       </c>
-      <c r="K30" s="47">
+      <c r="K32" s="41">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="48" t="s">
+    <row r="33" spans="1:11">
+      <c r="A33" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B33" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C33" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D33" s="42">
         <v>10</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E33" s="42">
         <v>10</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F33" s="42">
         <v>12</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G33" s="42">
         <v>12</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H33" s="42">
         <v>12</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I33" s="42">
         <v>12</v>
       </c>
-      <c r="J31" s="49">
+      <c r="J33" s="42">
         <v>12</v>
       </c>
-      <c r="K31" s="50">
+      <c r="K33" s="43">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52" t="s">
+    <row r="34" spans="1:11">
+      <c r="A34" s="85"/>
+      <c r="B34" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C34" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D34" s="44">
         <v>1</v>
       </c>
-      <c r="E32" s="52">
+      <c r="E34" s="44">
         <v>1</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F34" s="44">
         <v>1</v>
       </c>
-      <c r="G32" s="52">
+      <c r="G34" s="44">
         <v>1</v>
       </c>
-      <c r="H32" s="52">
+      <c r="H34" s="44">
         <v>0.93571428571428561</v>
       </c>
-      <c r="I32" s="52">
+      <c r="I34" s="44">
         <v>0.93571428571428561</v>
       </c>
-      <c r="J32" s="52">
+      <c r="J34" s="44">
         <v>0.85</v>
       </c>
-      <c r="K32" s="53">
+      <c r="K34" s="45">
         <v>0.85</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52" t="s">
+    <row r="35" spans="1:11">
+      <c r="A35" s="85"/>
+      <c r="B35" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="52" t="s">
+      <c r="C35" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D35" s="46">
         <v>1</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E35" s="46">
         <v>1</v>
       </c>
-      <c r="F33" s="54">
+      <c r="F35" s="46">
         <v>2</v>
       </c>
-      <c r="G33" s="54">
+      <c r="G35" s="46">
         <v>2</v>
       </c>
-      <c r="H33" s="54">
+      <c r="H35" s="46">
         <v>2</v>
       </c>
-      <c r="I33" s="54">
+      <c r="I35" s="46">
         <v>2</v>
       </c>
-      <c r="J33" s="54">
+      <c r="J35" s="46">
         <v>2</v>
       </c>
-      <c r="K33" s="55">
+      <c r="K35" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="85"/>
+      <c r="B36" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C36" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D36" s="44">
         <v>2000</v>
       </c>
-      <c r="E34" s="52">
+      <c r="E36" s="44">
         <v>3000</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F36" s="44">
         <v>100000000</v>
       </c>
-      <c r="G34" s="52">
+      <c r="G36" s="44">
         <v>100000000</v>
       </c>
-      <c r="H34" s="52">
+      <c r="H36" s="44">
         <v>100000000</v>
       </c>
-      <c r="I34" s="52">
+      <c r="I36" s="44">
         <v>100000000</v>
       </c>
-      <c r="J34" s="52">
+      <c r="J36" s="44">
         <v>100000000</v>
       </c>
-      <c r="K34" s="53">
+      <c r="K36" s="45">
         <v>100000000</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52" t="s">
+    <row r="37" spans="1:11">
+      <c r="A37" s="85"/>
+      <c r="B37" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C37" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="52" t="s">
+      <c r="D37" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E37" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="52" t="s">
+      <c r="F37" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G37" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="H35" s="52" t="s">
+      <c r="H37" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="I35" s="52" t="s">
+      <c r="I37" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="J35" s="52" t="s">
+      <c r="J37" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="K35" s="53" t="s">
+      <c r="K37" s="45" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52" t="s">
+    <row r="38" spans="1:11">
+      <c r="A38" s="85"/>
+      <c r="B38" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C38" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D38" s="44">
         <v>210000</v>
       </c>
-      <c r="E36" s="52">
+      <c r="E38" s="44">
         <v>210000</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F38" s="44">
         <v>210000</v>
       </c>
-      <c r="G36" s="52">
+      <c r="G38" s="44">
         <v>210000</v>
       </c>
-      <c r="H36" s="52">
+      <c r="H38" s="44">
         <v>193846.15384615384</v>
       </c>
-      <c r="I36" s="52">
+      <c r="I38" s="44">
         <v>193846.15384615384</v>
       </c>
-      <c r="J36" s="52">
+      <c r="J38" s="44">
         <v>210000</v>
       </c>
-      <c r="K36" s="53">
+      <c r="K38" s="45">
         <v>210000</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" thickBot="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57" t="s">
+    <row r="39" spans="1:11" ht="15" thickBot="1">
+      <c r="A39" s="86"/>
+      <c r="B39" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C39" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="58">
+      <c r="D39" s="49">
         <v>0.95</v>
       </c>
-      <c r="E37" s="58">
+      <c r="E39" s="49">
         <v>0.95</v>
       </c>
-      <c r="F37" s="58">
+      <c r="F39" s="49">
         <v>0.9</v>
       </c>
-      <c r="G37" s="58">
+      <c r="G39" s="49">
         <v>0.9</v>
       </c>
-      <c r="H37" s="58">
+      <c r="H39" s="49">
         <v>1</v>
       </c>
-      <c r="I37" s="58">
+      <c r="I39" s="49">
         <v>1</v>
       </c>
-      <c r="J37" s="58">
+      <c r="J39" s="49">
         <v>1</v>
       </c>
-      <c r="K37" s="59">
+      <c r="K39" s="50">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="48" t="s">
+    <row r="40" spans="1:11">
+      <c r="A40" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="60" t="s">
+      <c r="B40" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C40" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="49">
+      <c r="D40" s="42">
         <v>0.28844568430102241</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E40" s="42">
         <v>3.7725248222562513E-2</v>
       </c>
-      <c r="F38" s="49">
+      <c r="F40" s="42">
         <v>8.8623039643821122E-2</v>
       </c>
-      <c r="G38" s="49">
+      <c r="G40" s="42">
         <v>0.1699248178375177</v>
       </c>
-      <c r="H38" s="49">
+      <c r="H40" s="42">
         <v>0.25194280534317759</v>
       </c>
-      <c r="I38" s="49">
+      <c r="I40" s="42">
         <v>0.25194280534317759</v>
       </c>
-      <c r="J38" s="49">
+      <c r="J40" s="42">
         <v>0.25194280534317759</v>
       </c>
-      <c r="K38" s="50">
+      <c r="K40" s="43">
         <v>0.25194280534317759</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="51"/>
-      <c r="B39" s="61" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" s="85"/>
+      <c r="B41" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C41" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D41" s="44">
         <v>0.3524312690488518</v>
       </c>
-      <c r="E39" s="52">
+      <c r="E41" s="44">
         <v>0.105393651950856</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F41" s="44">
         <v>0.16404956137862131</v>
       </c>
-      <c r="G39" s="52">
+      <c r="G41" s="44">
         <v>0.2471120972881847</v>
       </c>
-      <c r="H39" s="52">
+      <c r="H41" s="44">
         <v>0.32943610271353058</v>
       </c>
-      <c r="I39" s="52">
+      <c r="I41" s="44">
         <v>0.32943610271353058</v>
       </c>
-      <c r="J39" s="52">
+      <c r="J41" s="44">
         <v>0.32943610271353058</v>
       </c>
-      <c r="K39" s="53">
+      <c r="K41" s="45">
         <v>0.32943610271353058</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="51"/>
-      <c r="B40" s="61" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" s="85"/>
+      <c r="B42" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C42" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D42" s="44">
         <v>0.29141001732272009</v>
       </c>
-      <c r="E40" s="52">
+      <c r="E42" s="44">
         <v>2.3467056952062752E-2</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F42" s="44">
         <v>0.11880610219922259</v>
       </c>
-      <c r="G40" s="52">
+      <c r="G42" s="44">
         <v>0.1637841187500868</v>
       </c>
-      <c r="H40" s="52">
+      <c r="H42" s="44">
         <v>0.26550365984188579</v>
       </c>
-      <c r="I40" s="52">
+      <c r="I42" s="44">
         <v>0.26550365984188579</v>
       </c>
-      <c r="J40" s="52">
+      <c r="J42" s="44">
         <v>0.26550365984188579</v>
       </c>
-      <c r="K40" s="53">
+      <c r="K42" s="45">
         <v>0.26550365984188579</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="51"/>
-      <c r="B41" s="61" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" s="85"/>
+      <c r="B43" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C43" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D43" s="44">
         <v>0.30699574700308507</v>
       </c>
-      <c r="E41" s="52">
+      <c r="E43" s="44">
         <v>3.9494798580949668E-2</v>
       </c>
-      <c r="F41" s="52">
+      <c r="F43" s="44">
         <v>0.13692092754166901</v>
       </c>
-      <c r="G41" s="52">
+      <c r="G43" s="44">
         <v>0.1851239411251627</v>
       </c>
-      <c r="H41" s="52">
+      <c r="H43" s="44">
         <v>0.28584370944240489</v>
       </c>
-      <c r="I41" s="52">
+      <c r="I43" s="44">
         <v>0.28584370944240489</v>
       </c>
-      <c r="J41" s="52">
+      <c r="J43" s="44">
         <v>0.28584370944240489</v>
       </c>
-      <c r="K41" s="53">
+      <c r="K43" s="45">
         <v>0.28584370944240489</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="51"/>
-      <c r="B42" s="61" t="s">
+    <row r="44" spans="1:11">
+      <c r="A44" s="85"/>
+      <c r="B44" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C44" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D44" s="44">
         <v>0.32609131172459271</v>
       </c>
-      <c r="E42" s="52">
+      <c r="E44" s="44">
         <v>6.2120161017276132E-2</v>
       </c>
-      <c r="F42" s="52">
+      <c r="F44" s="44">
         <v>9.3792415037389887E-2</v>
       </c>
-      <c r="G42" s="52">
+      <c r="G44" s="44">
         <v>0.27910120198358263</v>
       </c>
-      <c r="H42" s="52">
+      <c r="H44" s="44">
         <v>0.32829933353293761</v>
       </c>
-      <c r="I42" s="52">
+      <c r="I44" s="44">
         <v>0.32829933353293761</v>
       </c>
-      <c r="J42" s="52">
+      <c r="J44" s="44">
         <v>0.32829933353293761</v>
       </c>
-      <c r="K42" s="53">
+      <c r="K44" s="45">
         <v>0.32829933353293761</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="51"/>
-      <c r="B43" s="61" t="s">
+    <row r="45" spans="1:11">
+      <c r="A45" s="85"/>
+      <c r="B45" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C45" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="D43" s="52">
+      <c r="D45" s="44">
         <v>0.34676199524840873</v>
       </c>
-      <c r="E43" s="52">
+      <c r="E45" s="44">
         <v>8.3699948253588174E-2</v>
       </c>
-      <c r="F43" s="52">
+      <c r="F45" s="44">
         <v>0.1191684353334459</v>
       </c>
-      <c r="G43" s="52">
+      <c r="G45" s="44">
         <v>0.30758163178369302</v>
       </c>
-      <c r="H43" s="52">
+      <c r="H45" s="44">
         <v>0.35401798023787567</v>
       </c>
-      <c r="I43" s="52">
+      <c r="I45" s="44">
         <v>0.35401798023787567</v>
       </c>
-      <c r="J43" s="52">
+      <c r="J45" s="44">
         <v>0.35401798023787567</v>
       </c>
-      <c r="K43" s="53">
+      <c r="K45" s="45">
         <v>0.35401798023787567</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="51"/>
-      <c r="B44" s="61" t="s">
+    <row r="46" spans="1:11">
+      <c r="A46" s="85"/>
+      <c r="B46" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C46" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="54">
+      <c r="D46" s="46">
         <v>30000</v>
       </c>
-      <c r="E44" s="54">
+      <c r="E46" s="46">
         <v>1600000</v>
       </c>
-      <c r="F44" s="54">
+      <c r="F46" s="46">
         <v>40000</v>
       </c>
-      <c r="G44" s="54">
+      <c r="G46" s="46">
         <v>4000000</v>
       </c>
-      <c r="H44" s="54">
+      <c r="H46" s="46">
         <v>23000</v>
       </c>
-      <c r="I44" s="54">
+      <c r="I46" s="46">
         <v>23000</v>
       </c>
-      <c r="J44" s="54">
+      <c r="J46" s="46">
         <v>15000</v>
       </c>
-      <c r="K44" s="55">
+      <c r="K46" s="47">
         <v>15000</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" thickBot="1">
-      <c r="A45" s="56"/>
-      <c r="B45" s="62" t="s">
+    <row r="47" spans="1:11" ht="15" thickBot="1">
+      <c r="A47" s="86"/>
+      <c r="B47" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C47" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="58">
+      <c r="D47" s="49">
         <v>20000</v>
       </c>
-      <c r="E45" s="58">
+      <c r="E47" s="49">
         <v>15000</v>
       </c>
-      <c r="F45" s="58">
+      <c r="F47" s="49">
         <v>18000</v>
       </c>
-      <c r="G45" s="58">
+      <c r="G47" s="49">
         <v>18000</v>
       </c>
-      <c r="H45" s="58">
+      <c r="H47" s="49">
         <v>12000</v>
       </c>
-      <c r="I45" s="58">
+      <c r="I47" s="49">
         <v>1200000</v>
       </c>
-      <c r="J45" s="58">
+      <c r="J47" s="49">
         <v>14000</v>
       </c>
-      <c r="K45" s="59">
+      <c r="K47" s="50">
         <v>1400000</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="48" t="s">
+    <row r="48" spans="1:11">
+      <c r="A48" s="84" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="60" t="s">
+      <c r="B48" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C48" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="D46" s="49">
+      <c r="D48" s="42">
         <v>36936.685005163112</v>
       </c>
-      <c r="E46" s="49">
+      <c r="E48" s="42">
         <v>37821.364677197205</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F48" s="42">
         <v>43623.257989846839</v>
       </c>
-      <c r="G46" s="49">
+      <c r="G48" s="42">
         <v>43623.257989846839</v>
       </c>
-      <c r="H46" s="49">
+      <c r="H48" s="42">
         <v>33345.618407438931</v>
       </c>
-      <c r="I46" s="49">
+      <c r="I48" s="42">
         <v>33345.618407438931</v>
       </c>
-      <c r="J46" s="49">
+      <c r="J48" s="42">
         <v>697972.12783754943</v>
       </c>
-      <c r="K46" s="50">
+      <c r="K48" s="43">
         <v>697972.12783754943</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="51"/>
-      <c r="B47" s="61" t="s">
+    <row r="49" spans="1:11">
+      <c r="A49" s="85"/>
+      <c r="B49" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C49" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D49" s="44">
         <v>27912.068979441065</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E49" s="44">
         <v>8614.83610476576</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F49" s="44">
         <v>23884.460803740978</v>
       </c>
-      <c r="G47" s="52">
+      <c r="G49" s="44">
         <v>23884.460803740978</v>
       </c>
-      <c r="H47" s="52">
+      <c r="H49" s="44">
         <v>48452.59500075617</v>
       </c>
-      <c r="I47" s="52">
+      <c r="I49" s="44">
         <v>48452.59500075617</v>
       </c>
-      <c r="J47" s="52">
+      <c r="J49" s="44">
         <v>10337.803325718913</v>
       </c>
-      <c r="K47" s="53">
+      <c r="K49" s="45">
         <v>10337.803325718913</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="51"/>
-      <c r="B48" s="61" t="s">
+    <row r="50" spans="1:11">
+      <c r="A50" s="85"/>
+      <c r="B50" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="61" t="s">
+      <c r="C50" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D50" s="44">
         <v>1</v>
       </c>
-      <c r="E48" s="52">
+      <c r="E50" s="44">
         <v>1</v>
       </c>
-      <c r="F48" s="52">
+      <c r="F50" s="44">
         <v>0.94103602888102855</v>
       </c>
-      <c r="G48" s="52">
+      <c r="G50" s="44">
         <v>0.94103602888102855</v>
       </c>
-      <c r="H48" s="52">
+      <c r="H50" s="44">
         <v>0.93571428571428561</v>
       </c>
-      <c r="I48" s="52">
+      <c r="I50" s="44">
         <v>0.93571428571428561</v>
       </c>
-      <c r="J48" s="52">
+      <c r="J50" s="44">
         <v>0.85</v>
       </c>
-      <c r="K48" s="53">
+      <c r="K50" s="45">
         <v>0.85</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52" t="s">
+    <row r="51" spans="1:11">
+      <c r="A51" s="85"/>
+      <c r="B51" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C51" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D51" s="44">
         <v>1</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E51" s="44">
         <v>1</v>
       </c>
-      <c r="F49" s="52">
+      <c r="F51" s="44">
         <v>0.94103602888102855</v>
       </c>
-      <c r="G49" s="52">
+      <c r="G51" s="44">
         <v>0.94103602888102855</v>
       </c>
-      <c r="H49" s="52">
+      <c r="H51" s="44">
         <v>1</v>
       </c>
-      <c r="I49" s="52">
+      <c r="I51" s="44">
         <v>1</v>
       </c>
-      <c r="J49" s="52">
+      <c r="J51" s="44">
         <v>1</v>
       </c>
-      <c r="K49" s="53">
+      <c r="K51" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="51"/>
-      <c r="B50" s="52" t="s">
+    <row r="52" spans="1:11">
+      <c r="A52" s="85"/>
+      <c r="B52" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C52" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D52" s="44">
         <v>1.875</v>
       </c>
-      <c r="E50" s="52">
+      <c r="E52" s="44">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F50" s="52">
+      <c r="F52" s="44">
         <v>6.25E-2</v>
       </c>
-      <c r="G50" s="52">
+      <c r="G52" s="44">
         <v>6250000</v>
       </c>
-      <c r="H50" s="52">
+      <c r="H52" s="44">
         <v>6.25E-2</v>
       </c>
-      <c r="I50" s="52">
+      <c r="I52" s="44">
         <v>6.25E-2</v>
       </c>
-      <c r="J50" s="52">
+      <c r="J52" s="44">
         <v>6.25E-2</v>
       </c>
-      <c r="K50" s="53">
+      <c r="K52" s="45">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" thickBot="1">
-      <c r="A51" s="56"/>
-      <c r="B51" s="57" t="s">
+    <row r="53" spans="1:11" ht="15" thickBot="1">
+      <c r="A53" s="86"/>
+      <c r="B53" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="C53" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="57">
+      <c r="D53" s="48">
         <v>2.0558802442980002</v>
       </c>
-      <c r="E51" s="57">
+      <c r="E53" s="48">
         <v>2.5572152616191466</v>
       </c>
-      <c r="F51" s="57">
+      <c r="F53" s="48">
         <v>1.0648283115457</v>
       </c>
-      <c r="G51" s="57">
+      <c r="G53" s="48">
         <v>2713991002.3206472</v>
       </c>
-      <c r="H51" s="57">
+      <c r="H53" s="48">
         <v>3.5367267455312851E-2</v>
       </c>
-      <c r="I51" s="57">
+      <c r="I53" s="48">
         <v>5.3050901182969268</v>
       </c>
-      <c r="J51" s="57">
+      <c r="J53" s="48">
         <v>3.5367267455312851E-2</v>
       </c>
-      <c r="K51" s="63">
+      <c r="K53" s="54">
         <v>0.24757087218718993</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="64" t="s">
+    <row r="54" spans="1:11">
+      <c r="A54" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B54" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="65" t="s">
+      <c r="C54" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="66">
+      <c r="D54" s="42">
         <v>113.41744596149626</v>
       </c>
-      <c r="E52" s="66">
+      <c r="E54" s="42">
         <v>833.31725218046654</v>
       </c>
-      <c r="F52" s="66">
+      <c r="F54" s="42">
         <v>243.28327454063728</v>
       </c>
-      <c r="G52" s="66">
+      <c r="G54" s="42">
         <v>296.41400768054854</v>
       </c>
-      <c r="H52" s="66">
+      <c r="H54" s="42">
         <v>819.21525606875491</v>
       </c>
-      <c r="I52" s="66">
+      <c r="I54" s="42">
         <v>1.7649457662778753E-4</v>
       </c>
-      <c r="J52" s="66">
+      <c r="J54" s="42">
         <v>490.05188723678293</v>
       </c>
-      <c r="K52" s="67">
+      <c r="K54" s="43">
         <v>1.0557847857785165E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="68"/>
-      <c r="B53" s="69" t="s">
+    <row r="55" spans="1:11">
+      <c r="A55" s="82"/>
+      <c r="B55" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C55" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="70">
+      <c r="D55" s="44">
         <v>138.57671162372117</v>
       </c>
-      <c r="E53" s="70">
+      <c r="E55" s="44">
         <v>2328.0522350128654</v>
       </c>
-      <c r="F53" s="70">
+      <c r="F55" s="44">
         <v>450.34016706657667</v>
       </c>
-      <c r="G53" s="70">
+      <c r="G55" s="44">
         <v>431.0582058329806</v>
       </c>
-      <c r="H53" s="70">
+      <c r="H55" s="44">
         <v>1071.191855925985</v>
       </c>
-      <c r="I53" s="70">
+      <c r="I55" s="44">
         <v>2.3078128940865741E-4</v>
       </c>
-      <c r="J53" s="70">
+      <c r="J55" s="44">
         <v>640.78346527416727</v>
       </c>
-      <c r="K53" s="71">
+      <c r="K55" s="45">
         <v>1.3805261263855048E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="68"/>
-      <c r="B54" s="69" t="s">
+    <row r="56" spans="1:11">
+      <c r="A56" s="82"/>
+      <c r="B56" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="69" t="s">
+      <c r="C56" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="D54" s="70">
+      <c r="D56" s="44">
         <v>27.508590218238286</v>
       </c>
-      <c r="E54" s="70">
+      <c r="E56" s="44">
         <v>4.9746517960249812E-5</v>
       </c>
-      <c r="F54" s="70">
+      <c r="F56" s="44">
         <v>22.774354232295515</v>
       </c>
-      <c r="G54" s="70">
+      <c r="G56" s="44">
         <v>1.7215462233767611E-6</v>
       </c>
-      <c r="H54" s="70">
+      <c r="H56" s="44">
         <v>65.180320153746422</v>
       </c>
-      <c r="I54" s="70">
+      <c r="I56" s="44">
         <v>65.180320153746422</v>
       </c>
-      <c r="J54" s="70">
+      <c r="J56" s="44">
         <v>270.9599348299364</v>
       </c>
-      <c r="K54" s="71">
+      <c r="K56" s="45">
         <v>270.9599348299364</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="68"/>
-      <c r="B55" s="69" t="s">
+    <row r="57" spans="1:11">
+      <c r="A57" s="82"/>
+      <c r="B57" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="69" t="s">
+      <c r="C57" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="D55" s="70">
+      <c r="D57" s="44">
         <v>28.979855533577762</v>
       </c>
-      <c r="E55" s="70">
+      <c r="E57" s="44">
         <v>8.3722842236122922E-5</v>
       </c>
-      <c r="F55" s="70">
+      <c r="F57" s="44">
         <v>26.246847997920781</v>
       </c>
-      <c r="G55" s="70">
+      <c r="G57" s="44">
         <v>1.9458505753353258E-6</v>
       </c>
-      <c r="H55" s="70">
+      <c r="H57" s="44">
         <v>70.17373887232246</v>
       </c>
-      <c r="I55" s="70">
+      <c r="I57" s="44">
         <v>70.17373887232246</v>
       </c>
-      <c r="J55" s="70">
+      <c r="J57" s="44">
         <v>291.71798583938943</v>
       </c>
-      <c r="K55" s="71">
+      <c r="K57" s="45">
         <v>291.71798583938943</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="68"/>
-      <c r="B56" s="69" t="s">
+    <row r="58" spans="1:11">
+      <c r="A58" s="82"/>
+      <c r="B58" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C58" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="70">
+      <c r="D58" s="44">
         <v>33.188236940419529</v>
       </c>
-      <c r="E56" s="70">
+      <c r="E58" s="44">
         <v>2.3840485455620605E-4</v>
       </c>
-      <c r="F56" s="70">
+      <c r="F58" s="44">
         <v>12.143948916517607</v>
       </c>
-      <c r="G56" s="70">
+      <c r="G58" s="44">
         <v>7.3245114633579287E-6</v>
       </c>
-      <c r="H56" s="70">
+      <c r="H58" s="44">
         <v>122.05177651855068</v>
       </c>
-      <c r="I56" s="70">
+      <c r="I58" s="44">
         <v>122.05177651855068</v>
       </c>
-      <c r="J56" s="70">
+      <c r="J58" s="44">
         <v>507.3792416689073</v>
       </c>
-      <c r="K56" s="71">
+      <c r="K58" s="45">
         <v>507.3792416689073</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="68"/>
-      <c r="B57" s="69" t="s">
+    <row r="59" spans="1:11" ht="15" thickBot="1">
+      <c r="A59" s="82"/>
+      <c r="B59" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="C57" s="69" t="s">
+      <c r="C59" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="70">
+      <c r="D59" s="44">
         <v>35.292014372822351</v>
       </c>
-      <c r="E57" s="70">
+      <c r="E59" s="44">
         <v>3.2122379696036455E-4</v>
       </c>
-      <c r="F57" s="70">
+      <c r="F59" s="44">
         <v>15.429556756522256</v>
       </c>
-      <c r="G57" s="70">
+      <c r="G59" s="44">
         <v>8.0719293643547873E-6</v>
       </c>
-      <c r="H57" s="70">
+      <c r="H59" s="44">
         <v>131.61319257812892</v>
       </c>
-      <c r="I57" s="70">
+      <c r="I59" s="44">
         <v>131.61319257812892</v>
       </c>
-      <c r="J57" s="70">
+      <c r="J59" s="44">
         <v>547.12683214213871</v>
       </c>
-      <c r="K57" s="71">
+      <c r="K59" s="45">
         <v>547.12683214213871</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="68"/>
-      <c r="B58" s="70" t="s">
+    <row r="60" spans="1:11">
+      <c r="A60" s="82"/>
+      <c r="B60" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="90" t="s">
+        <v>168</v>
+      </c>
+      <c r="D60" s="62">
+        <f>((D40*(D$79^(10/3)))/((D$10*1000)^(10/3)))*1000000</f>
+        <v>1.4267539407961325E-2</v>
+      </c>
+      <c r="E60" s="55">
+        <f t="shared" ref="E60:K63" si="0">((E40*(E$79^(10/3)))/((E$10*1000)^(10/3)))*1000000</f>
+        <v>9.4798426183987691E-2</v>
+      </c>
+      <c r="F60" s="55">
+        <f t="shared" si="0"/>
+        <v>2.3755875949969401E-2</v>
+      </c>
+      <c r="G60" s="55">
+        <f t="shared" si="0"/>
+        <v>3.2017512986022151E-2</v>
+      </c>
+      <c r="H60" s="55">
+        <f t="shared" si="0"/>
+        <v>0.1098511941900266</v>
+      </c>
+      <c r="I60" s="55">
+        <f t="shared" si="0"/>
+        <v>2.3666722350442442E-8</v>
+      </c>
+      <c r="J60" s="55">
+        <f t="shared" si="0"/>
+        <v>6.5712625136364888E-2</v>
+      </c>
+      <c r="K60" s="56">
+        <f t="shared" si="0"/>
+        <v>1.4157355916684594E-8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="82"/>
+      <c r="B61" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" s="63">
+        <f>((D41*(D$79^(10/3)))/((D$10*1000)^(10/3)))*1000000</f>
+        <v>1.7432491777220501E-2</v>
+      </c>
+      <c r="E61" s="58">
+        <f t="shared" si="0"/>
+        <v>0.26483993626180191</v>
+      </c>
+      <c r="F61" s="58">
+        <f t="shared" si="0"/>
+        <v>4.3974355262696427E-2</v>
+      </c>
+      <c r="G61" s="58">
+        <f t="shared" si="0"/>
+        <v>4.6561266827386011E-2</v>
+      </c>
+      <c r="H61" s="58">
+        <f t="shared" si="0"/>
+        <v>0.14363954248701696</v>
+      </c>
+      <c r="I61" s="58">
+        <f t="shared" si="0"/>
+        <v>3.0946201319434083E-8</v>
+      </c>
+      <c r="J61" s="58">
+        <f t="shared" si="0"/>
+        <v>8.5924704595202878E-2</v>
+      </c>
+      <c r="K61" s="59">
+        <f t="shared" si="0"/>
+        <v>1.8511916431064745E-8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="82"/>
+      <c r="B62" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" s="63">
+        <f>((D42*(D$77^(10/3)))/((D$9*1000)^(10/3)))*1000000</f>
+        <v>2.1374078543450413E-3</v>
+      </c>
+      <c r="E62" s="58">
+        <f t="shared" ref="E62:K63" si="1">((E42*(E$77^(10/3)))/((E$9*1000)^(10/3)))*1000000</f>
+        <v>4.2353457811646671E-9</v>
+      </c>
+      <c r="F62" s="58">
+        <f t="shared" si="1"/>
+        <v>1.5797066696712401E-3</v>
+      </c>
+      <c r="G62" s="58">
+        <f t="shared" si="1"/>
+        <v>1.5510913392399976E-10</v>
+      </c>
+      <c r="H62" s="58">
+        <f t="shared" si="1"/>
+        <v>4.5167627444227124E-3</v>
+      </c>
+      <c r="I62" s="58">
+        <f t="shared" si="1"/>
+        <v>4.5167627444227124E-3</v>
+      </c>
+      <c r="J62" s="58">
+        <f t="shared" si="1"/>
+        <v>1.8776553045217387E-2</v>
+      </c>
+      <c r="K62" s="59">
+        <f t="shared" si="1"/>
+        <v>1.8776553045217387E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="82"/>
+      <c r="B63" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="63">
+        <f>((D43*(D$77^(10/3)))/((D$9*1000)^(10/3)))*1000000</f>
+        <v>2.2517246556018025E-3</v>
+      </c>
+      <c r="E63" s="58">
+        <f t="shared" si="1"/>
+        <v>7.1280403371190556E-9</v>
+      </c>
+      <c r="F63" s="58">
+        <f t="shared" si="1"/>
+        <v>1.8205706478986098E-3</v>
+      </c>
+      <c r="G63" s="58">
+        <f t="shared" si="1"/>
+        <v>1.7531867189355494E-10</v>
+      </c>
+      <c r="H63" s="58">
+        <f t="shared" si="1"/>
+        <v>4.86278877777399E-3</v>
+      </c>
+      <c r="I63" s="58">
+        <f t="shared" si="1"/>
+        <v>4.86278877777399E-3</v>
+      </c>
+      <c r="J63" s="58">
+        <f t="shared" si="1"/>
+        <v>2.021501163555825E-2</v>
+      </c>
+      <c r="K63" s="59">
+        <f t="shared" si="1"/>
+        <v>2.021501163555825E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="82"/>
+      <c r="B64" s="77" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="63">
+        <f>((D44*(D$78^(10/3)))/((D$9*1000)^(10/3)))*1000000</f>
+        <v>4.1749703884968936E-3</v>
+      </c>
+      <c r="E64" s="58">
+        <f t="shared" ref="E64:K65" si="2">((E44*(E$78^(10/3)))/((E$9*1000)^(10/3)))*1000000</f>
+        <v>2.7121009372378118E-8</v>
+      </c>
+      <c r="F64" s="58">
+        <f t="shared" si="2"/>
+        <v>1.7556334153744373E-3</v>
+      </c>
+      <c r="G64" s="58">
+        <f t="shared" si="2"/>
+        <v>7.9116585187523022E-10</v>
+      </c>
+      <c r="H64" s="58">
+        <f t="shared" si="2"/>
+        <v>1.6366313132298194E-2</v>
+      </c>
+      <c r="I64" s="58">
+        <f t="shared" si="2"/>
+        <v>1.6366313132298194E-2</v>
+      </c>
+      <c r="J64" s="58">
+        <f t="shared" si="2"/>
+        <v>6.8036105518867879E-2</v>
+      </c>
+      <c r="K64" s="59">
+        <f t="shared" si="2"/>
+        <v>6.8036105518867879E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="82"/>
+      <c r="B65" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="63">
+        <f>((D45*(D$78^(10/3)))/((D$9*1000)^(10/3)))*1000000</f>
+        <v>4.4396186281740321E-3</v>
+      </c>
+      <c r="E65" s="58">
+        <f t="shared" si="2"/>
+        <v>3.6542517660599996E-8</v>
+      </c>
+      <c r="F65" s="58">
+        <f t="shared" si="2"/>
+        <v>2.2306290657499589E-3</v>
+      </c>
+      <c r="G65" s="58">
+        <f t="shared" si="2"/>
+        <v>8.7189908893919126E-10</v>
+      </c>
+      <c r="H65" s="58">
+        <f t="shared" si="2"/>
+        <v>1.7648433996761467E-2</v>
+      </c>
+      <c r="I65" s="58">
+        <f t="shared" si="2"/>
+        <v>1.7648433996761467E-2</v>
+      </c>
+      <c r="J65" s="58">
+        <f t="shared" si="2"/>
+        <v>7.3365987069919217E-2</v>
+      </c>
+      <c r="K65" s="59">
+        <f t="shared" si="2"/>
+        <v>7.3365987069919217E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="82"/>
+      <c r="B66" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="70" t="s">
+      <c r="C66" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="D58" s="70">
-        <f>D29*4/6400000</f>
+      <c r="D66" s="63">
+        <f>D31*4/6400000</f>
         <v>1.875</v>
       </c>
-      <c r="E58" s="70">
-        <f t="shared" ref="E58:K58" si="0">E29*4/6400000</f>
+      <c r="E66" s="58">
+        <f>E31*4/6400000</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="F58" s="70">
-        <f t="shared" si="0"/>
+      <c r="F66" s="58">
+        <f>F31*4/6400000</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G58" s="70">
-        <f t="shared" si="0"/>
+      <c r="G66" s="58">
+        <f>G31*4/6400000</f>
         <v>6250000</v>
       </c>
-      <c r="H58" s="70">
-        <f t="shared" si="0"/>
+      <c r="H66" s="58">
+        <f>H31*4/6400000</f>
         <v>6.25E-2</v>
       </c>
-      <c r="I58" s="70">
-        <f t="shared" si="0"/>
+      <c r="I66" s="58">
+        <f>I31*4/6400000</f>
         <v>6.25E-2</v>
       </c>
-      <c r="J58" s="70">
-        <f t="shared" si="0"/>
+      <c r="J66" s="58">
+        <f t="shared" ref="J66:K66" si="3">J31*4/6400000</f>
         <v>6.25E-2</v>
       </c>
-      <c r="K58" s="71">
-        <f t="shared" si="0"/>
+      <c r="K66" s="59">
+        <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="68"/>
-      <c r="B59" s="70" t="s">
+    <row r="67" spans="1:11">
+      <c r="A67" s="82"/>
+      <c r="B67" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C67" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="D59" s="70">
-        <f>0.4*D28*D27/(450*6400000)</f>
+      <c r="D67" s="63">
+        <f>0.4*D30*D29/(450*6400000)</f>
         <v>2.0558802442980002</v>
       </c>
-      <c r="E59" s="70">
-        <f>0.5*E28*E27/(450*6400000)</f>
+      <c r="E67" s="58">
+        <f>0.5*E30*E29/(450*6400000)</f>
         <v>2.5572152616191466</v>
       </c>
-      <c r="F59" s="70">
-        <f>0.3*F28*F27/(450*6400000)</f>
+      <c r="F67" s="58">
+        <f>0.3*F30*F29/(450*6400000)</f>
         <v>1.0648283115457</v>
       </c>
-      <c r="G59" s="70">
-        <f t="shared" ref="E59:K59" si="1">0.4*G28*G27/(450*6400000)</f>
+      <c r="G67" s="58">
+        <f t="shared" ref="G67" si="4">0.4*G30*G29/(450*6400000)</f>
         <v>2713991002.3206472</v>
       </c>
-      <c r="H59" s="70">
-        <f>0.5*H28*H27/(450*6400000)</f>
+      <c r="H67" s="58">
+        <f>0.5*H30*H29/(450*6400000)</f>
         <v>3.5367267455312851E-2</v>
       </c>
-      <c r="I59" s="70">
-        <f t="shared" ref="I59:K59" si="2">0.5*I28*I27/(450*6400000)</f>
+      <c r="I67" s="58">
+        <f>0.5*I30*I29/(450*6400000)</f>
         <v>5.3050901182969268</v>
       </c>
-      <c r="J59" s="70">
-        <f t="shared" si="2"/>
+      <c r="J67" s="58">
+        <f t="shared" ref="J67:K67" si="5">0.5*J30*J29/(450*6400000)</f>
         <v>3.5367267455312851E-2</v>
       </c>
-      <c r="K59" s="71">
-        <f t="shared" si="2"/>
+      <c r="K67" s="59">
+        <f t="shared" si="5"/>
         <v>0.24757087218718993</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="68"/>
-      <c r="B60" s="69" t="s">
+    <row r="68" spans="1:11">
+      <c r="A68" s="82"/>
+      <c r="B68" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="69" t="s">
+      <c r="C68" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="70">
+      <c r="D68" s="63">
         <v>1.7663920846460137</v>
       </c>
-      <c r="E60" s="70">
+      <c r="E68" s="58">
         <v>1.5156812421936006</v>
       </c>
-      <c r="F60" s="70">
+      <c r="F68" s="58">
         <v>1.5156812421936006</v>
       </c>
-      <c r="G60" s="70">
+      <c r="G68" s="58">
         <v>1.5156812421936006</v>
       </c>
-      <c r="H60" s="70">
+      <c r="H68" s="58">
         <v>1.2880813717219535</v>
       </c>
-      <c r="I60" s="70">
+      <c r="I68" s="58">
         <v>12.880813717219535</v>
       </c>
-      <c r="J60" s="70">
+      <c r="J68" s="58">
         <v>1.3367052112299087</v>
       </c>
-      <c r="K60" s="71">
+      <c r="K68" s="59">
         <v>13.367052112299087</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="68"/>
-      <c r="B61" s="69" t="s">
+    <row r="69" spans="1:11">
+      <c r="A69" s="82"/>
+      <c r="B69" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C61" s="69" t="s">
+      <c r="C69" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="70">
+      <c r="D69" s="63">
         <v>2.0583891146458879</v>
       </c>
-      <c r="E61" s="70">
+      <c r="E69" s="58">
         <v>16.07819005657629</v>
       </c>
-      <c r="F61" s="70">
+      <c r="F69" s="58">
         <v>2.3206868393115712</v>
       </c>
-      <c r="G61" s="70">
+      <c r="G69" s="58">
         <v>23.206868393115712</v>
       </c>
-      <c r="H61" s="70">
+      <c r="H69" s="58">
         <v>1.8316037112550809</v>
       </c>
-      <c r="I61" s="70">
+      <c r="I69" s="58">
         <v>1.8316037112550809</v>
       </c>
-      <c r="J61" s="70">
+      <c r="J69" s="58">
         <v>1.4211246522764018</v>
       </c>
-      <c r="K61" s="71">
+      <c r="K69" s="59">
         <v>1.4211246522764018</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="68"/>
-      <c r="B62" s="69" t="s">
+    <row r="70" spans="1:11">
+      <c r="A70" s="82"/>
+      <c r="B70" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C62" s="69" t="s">
+      <c r="C70" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="70">
+      <c r="D70" s="63">
         <v>173677.03908993362</v>
       </c>
-      <c r="E62" s="70">
+      <c r="E70" s="58">
         <v>177836.82078015452</v>
       </c>
-      <c r="F62" s="70">
+      <c r="F70" s="58">
         <v>194321.78559113594</v>
       </c>
-      <c r="G62" s="70">
+      <c r="G70" s="58">
         <v>194321.78559113594</v>
       </c>
-      <c r="H62" s="70">
+      <c r="H70" s="58">
         <v>154434.00040212876</v>
       </c>
-      <c r="I62" s="70">
+      <c r="I70" s="58">
         <v>154434.00040212876</v>
       </c>
-      <c r="J62" s="70">
+      <c r="J70" s="58">
         <v>2936418.093377165</v>
       </c>
-      <c r="K62" s="71">
+      <c r="K70" s="59">
         <v>2936418.093377165</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="68"/>
-      <c r="B63" s="70" t="s">
+    <row r="71" spans="1:11">
+      <c r="A71" s="82"/>
+      <c r="B71" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C71" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="D63" s="70">
+      <c r="D71" s="63">
         <v>131243.11222151326</v>
       </c>
-      <c r="E63" s="70">
+      <c r="E71" s="58">
         <v>40507.133401701627</v>
       </c>
-      <c r="F63" s="70">
+      <c r="F71" s="58">
         <v>106394.41630757345</v>
       </c>
-      <c r="G63" s="70">
+      <c r="G71" s="58">
         <v>106394.41630757345</v>
       </c>
-      <c r="H63" s="70">
+      <c r="H71" s="58">
         <v>224399.13947319894</v>
       </c>
-      <c r="I63" s="70">
+      <c r="I71" s="58">
         <v>224399.13947319894</v>
       </c>
-      <c r="J63" s="70">
+      <c r="J71" s="58">
         <v>43491.869547090173</v>
       </c>
-      <c r="K63" s="71">
+      <c r="K71" s="59">
         <v>43491.869547090173</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="68"/>
-      <c r="B64" s="70" t="s">
+    <row r="72" spans="1:11">
+      <c r="A72" s="82"/>
+      <c r="B72" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="70" t="s">
+      <c r="C72" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="D64" s="70">
+      <c r="D72" s="63">
         <v>36936.685005163112</v>
       </c>
-      <c r="E64" s="70">
+      <c r="E72" s="58">
         <v>37821.364677197205</v>
       </c>
-      <c r="F64" s="70">
+      <c r="F72" s="58">
         <v>43623.257989846839</v>
       </c>
-      <c r="G64" s="70">
+      <c r="G72" s="58">
         <v>43623.257989846839</v>
       </c>
-      <c r="H64" s="70">
+      <c r="H72" s="58">
         <v>33345.618407438931</v>
       </c>
-      <c r="I64" s="70">
+      <c r="I72" s="58">
         <v>33345.618407438931</v>
       </c>
-      <c r="J64" s="70">
+      <c r="J72" s="58">
         <v>697972.12783754943</v>
       </c>
-      <c r="K64" s="71">
+      <c r="K72" s="59">
         <v>697972.12783754943</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="68"/>
-      <c r="B65" s="70" t="s">
+    <row r="73" spans="1:11">
+      <c r="A73" s="82"/>
+      <c r="B73" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="70" t="s">
+      <c r="C73" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="70">
+      <c r="D73" s="63">
         <v>27912.068979441065</v>
       </c>
-      <c r="E65" s="70">
+      <c r="E73" s="58">
         <v>8614.83610476576</v>
       </c>
-      <c r="F65" s="70">
+      <c r="F73" s="58">
         <v>23884.460803740978</v>
       </c>
-      <c r="G65" s="70">
+      <c r="G73" s="58">
         <v>23884.460803740978</v>
       </c>
-      <c r="H65" s="70">
+      <c r="H73" s="58">
         <v>48452.59500075617</v>
       </c>
-      <c r="I65" s="70">
+      <c r="I73" s="58">
         <v>48452.59500075617</v>
       </c>
-      <c r="J65" s="70">
+      <c r="J73" s="58">
         <v>10337.803325718913</v>
       </c>
-      <c r="K65" s="71">
+      <c r="K73" s="59">
         <v>10337.803325718913</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="68"/>
-      <c r="B66" s="70" t="s">
+    <row r="74" spans="1:11">
+      <c r="A74" s="82"/>
+      <c r="B74" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C74" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="D66" s="70">
-        <f>(D46*D49) / (1.1 * ((D51*D54)^(3/10)))</f>
+      <c r="D74" s="63">
+        <f>(D48*D50) / (1.1 * ((D53*D56)^(3/10)))</f>
         <v>10007.495107814289</v>
       </c>
-      <c r="E66" s="70">
-        <f t="shared" ref="E66:K66" si="3">(E46*E49) / (1.1 * ((E51*E54)^(3/10)))</f>
+      <c r="E74" s="58">
+        <f>(E48*E50) / (1.1 * ((E53*E56)^(3/10)))</f>
         <v>506973.80172247218</v>
       </c>
-      <c r="F66" s="70">
-        <f t="shared" si="3"/>
+      <c r="F74" s="58">
+        <f>(F48*F50) / (1.1 * ((F53*F56)^(3/10)))</f>
         <v>14338.838242669011</v>
       </c>
-      <c r="G66" s="70">
-        <f t="shared" si="3"/>
+      <c r="G74" s="58">
+        <f>(G48*G50) / (1.1 * ((G53*G56)^(3/10)))</f>
         <v>2958.5133703862093</v>
       </c>
-      <c r="H66" s="70">
-        <f t="shared" si="3"/>
-        <v>23595.581895621021</v>
-      </c>
-      <c r="I66" s="70">
-        <f t="shared" si="3"/>
-        <v>5248.1146533777273</v>
-      </c>
-      <c r="J66" s="70">
-        <f t="shared" si="3"/>
-        <v>322101.99843861908</v>
-      </c>
-      <c r="K66" s="71">
-        <f t="shared" si="3"/>
-        <v>179665.21743890378</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="68"/>
-      <c r="B67" s="70" t="s">
+      <c r="H74" s="58">
+        <f>(H48*H50) / (1.1 * ((H53*H56)^(3/10)))</f>
+        <v>22078.723059473952</v>
+      </c>
+      <c r="I74" s="58">
+        <f>(I48*I50) / (1.1 * ((I53*I56)^(3/10)))</f>
+        <v>4910.7358542320153</v>
+      </c>
+      <c r="J74" s="58">
+        <f t="shared" ref="J74:K74" si="6">(J48*J50) / (1.1 * ((J53*J56)^(3/10)))</f>
+        <v>273786.69867282623</v>
+      </c>
+      <c r="K74" s="59">
+        <f t="shared" si="6"/>
+        <v>152715.43482306821</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="82"/>
+      <c r="B75" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="70" t="s">
+      <c r="C75" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="D67" s="70">
-        <f>D46/(1.1*((D56*D51)^(3/10)))*D48</f>
+      <c r="D75" s="63">
+        <f>D48/(1.1*((D58*D53)^(3/10)))*D50</f>
         <v>9459.5533753159507</v>
       </c>
-      <c r="E67" s="70">
-        <f t="shared" ref="E67:K67" si="4">E46/(1.1*((E56*E51)^(3/10)))*E48</f>
+      <c r="E75" s="58">
+        <f>E48/(1.1*((E58*E53)^(3/10)))*E50</f>
         <v>316825.25658466032</v>
       </c>
-      <c r="F67" s="70">
-        <f t="shared" si="4"/>
+      <c r="F75" s="58">
+        <f>F48/(1.1*((F58*F53)^(3/10)))*F50</f>
         <v>17315.690210134519</v>
       </c>
-      <c r="G67" s="70">
-        <f t="shared" si="4"/>
+      <c r="G75" s="58">
+        <f>G48/(1.1*((G58*G53)^(3/10)))*G50</f>
         <v>1916.0884094104665</v>
       </c>
-      <c r="H67" s="70">
-        <f t="shared" si="4"/>
+      <c r="H75" s="58">
+        <f>H48/(1.1*((H58*H53)^(3/10)))*H50</f>
         <v>18291.346097238205</v>
       </c>
-      <c r="I67" s="70">
-        <f t="shared" si="4"/>
+      <c r="I75" s="58">
+        <f>I48/(1.1*((I58*I53)^(3/10)))*I50</f>
         <v>4068.349825300751</v>
       </c>
-      <c r="J67" s="70">
-        <f t="shared" si="4"/>
+      <c r="J75" s="58">
+        <f t="shared" ref="J75:K75" si="7">J48/(1.1*((J58*J53)^(3/10)))*J50</f>
         <v>226821.41755911187</v>
       </c>
-      <c r="K67" s="71">
-        <f t="shared" si="4"/>
+      <c r="K75" s="59">
+        <f t="shared" si="7"/>
         <v>126518.67887533165</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="68"/>
-      <c r="B68" s="70" t="s">
+    <row r="76" spans="1:11">
+      <c r="A76" s="82"/>
+      <c r="B76" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="70" t="s">
+      <c r="C76" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="D68" s="70">
-        <f>D47*D49/(1.1*(D52*D50)^(3/10))</f>
+      <c r="D76" s="63">
+        <f>D49*D51/(1.1*(D54*D52)^(3/10))</f>
         <v>5082.706170065776</v>
       </c>
-      <c r="E68" s="70">
-        <f t="shared" ref="E68:K68" si="5">E47*E49/(1.1*(E52*E50)^(3/10))</f>
+      <c r="E76" s="58">
+        <f>E49*E51/(1.1*(E54*E52)^(3/10))</f>
         <v>3877.3786847692313</v>
       </c>
-      <c r="F68" s="70">
-        <f t="shared" si="5"/>
+      <c r="F76" s="58">
+        <f>F49*F51/(1.1*(F54*F52)^(3/10))</f>
         <v>9030.9060985594551</v>
       </c>
-      <c r="G68" s="70">
-        <f t="shared" si="5"/>
+      <c r="G76" s="58">
+        <f>G49*G51/(1.1*(G54*G52)^(3/10))</f>
         <v>33.884055577604357</v>
       </c>
-      <c r="H68" s="70">
-        <f t="shared" si="5"/>
+      <c r="H76" s="58">
+        <f>H49*H51/(1.1*(H54*H52)^(3/10))</f>
         <v>13525.114236038917</v>
       </c>
-      <c r="I68" s="70">
-        <f t="shared" si="5"/>
+      <c r="I76" s="58">
+        <f>I49*I51/(1.1*(I54*I52)^(3/10))</f>
         <v>1352511.4236038916</v>
       </c>
-      <c r="J68" s="70">
-        <f t="shared" si="5"/>
+      <c r="J76" s="58">
+        <f t="shared" ref="J76:K76" si="8">J49*J51/(1.1*(J54*J52)^(3/10))</f>
         <v>3366.6576458050927</v>
       </c>
-      <c r="K68" s="71">
-        <f t="shared" si="5"/>
+      <c r="K76" s="59">
+        <f t="shared" si="8"/>
         <v>336665.76458050928</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="68"/>
-      <c r="B69" s="69" t="s">
+    <row r="77" spans="1:11">
+      <c r="A77" s="82"/>
+      <c r="B77" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="69" t="s">
+      <c r="C77" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="70">
-        <v>117384.40741471344</v>
-      </c>
-      <c r="E69" s="70">
-        <v>252354.58552319254</v>
-      </c>
-      <c r="F69" s="70">
-        <v>193571.8445231849</v>
-      </c>
-      <c r="G69" s="70">
-        <v>128396.75895488853</v>
-      </c>
-      <c r="H69" s="70">
-        <v>119878.59083757727</v>
-      </c>
-      <c r="I69" s="70">
-        <v>119878.59083757727</v>
-      </c>
-      <c r="J69" s="70">
-        <v>119878.59083757727</v>
-      </c>
-      <c r="K69" s="71">
-        <v>119878.59083757727</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="68"/>
-      <c r="B70" s="69" t="s">
+      <c r="D77" s="63">
+        <v>108826.86837271899</v>
+      </c>
+      <c r="E77" s="58">
+        <v>240463.44030944799</v>
+      </c>
+      <c r="F77" s="58">
+        <v>173452.795051878</v>
+      </c>
+      <c r="G77" s="58">
+        <v>124442.76916964501</v>
+      </c>
+      <c r="H77" s="58">
+        <v>107387.780393956</v>
+      </c>
+      <c r="I77" s="58">
+        <v>107387.780393956</v>
+      </c>
+      <c r="J77" s="58">
+        <v>107387.780393956</v>
+      </c>
+      <c r="K77" s="59">
+        <v>107387.780393956</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="82"/>
+      <c r="B78" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="69" t="s">
+      <c r="C78" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="D70" s="70">
-        <v>120064.53438319845</v>
-      </c>
-      <c r="E70" s="70">
-        <v>301539.86717319238</v>
-      </c>
-      <c r="F70" s="70">
-        <v>172074.95128440741</v>
-      </c>
-      <c r="G70" s="70">
-        <v>168952.6772995271</v>
-      </c>
-      <c r="H70" s="70">
-        <v>135771.95366221218</v>
-      </c>
-      <c r="I70" s="70">
-        <v>135771.95366221218</v>
-      </c>
-      <c r="J70" s="70">
-        <v>135771.95366221218</v>
-      </c>
-      <c r="K70" s="71">
-        <v>135771.95366221218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="68"/>
-      <c r="B71" s="69" t="s">
+      <c r="D78" s="63">
+        <v>128622.073425193</v>
+      </c>
+      <c r="E78" s="58">
+        <v>313431.012386936</v>
+      </c>
+      <c r="F78" s="58">
+        <v>192194.00075571399</v>
+      </c>
+      <c r="G78" s="58">
+        <v>172906.66708476999</v>
+      </c>
+      <c r="H78" s="58">
+        <v>148262.76410583299</v>
+      </c>
+      <c r="I78" s="58">
+        <v>148262.76410583299</v>
+      </c>
+      <c r="J78" s="58">
+        <v>148262.76410583299</v>
+      </c>
+      <c r="K78" s="59">
+        <v>148262.76410583299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="82"/>
+      <c r="B79" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="69" t="s">
+      <c r="C79" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="70">
-        <v>120064.53438319845</v>
-      </c>
-      <c r="E71" s="70">
-        <v>301539.86717319238</v>
-      </c>
-      <c r="F71" s="70">
-        <v>193571.8445231849</v>
-      </c>
-      <c r="G71" s="70">
-        <v>168952.6772995271</v>
-      </c>
-      <c r="H71" s="70">
-        <v>135771.95366221218</v>
-      </c>
-      <c r="I71" s="70">
-        <v>135771.95366221218</v>
-      </c>
-      <c r="J71" s="70">
-        <v>135771.95366221218</v>
-      </c>
-      <c r="K71" s="71">
-        <v>135771.95366221218</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="68"/>
-      <c r="B72" s="69" t="s">
+      <c r="D79" s="63">
+        <v>128622.073425193</v>
+      </c>
+      <c r="E79" s="58">
+        <v>313431.012386936</v>
+      </c>
+      <c r="F79" s="58">
+        <v>192194.00075571399</v>
+      </c>
+      <c r="G79" s="58">
+        <v>172906.66708476999</v>
+      </c>
+      <c r="H79" s="58">
+        <v>148262.76410583299</v>
+      </c>
+      <c r="I79" s="58">
+        <v>148262.76410583299</v>
+      </c>
+      <c r="J79" s="58">
+        <v>148262.76410583299</v>
+      </c>
+      <c r="K79" s="59">
+        <v>148262.76410583299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="82"/>
+      <c r="B80" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="C72" s="69" t="s">
+      <c r="C80" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="D72" s="70">
+      <c r="D80" s="63">
         <v>1</v>
       </c>
-      <c r="E72" s="70">
+      <c r="E80" s="58">
         <v>1</v>
       </c>
-      <c r="F72" s="70">
+      <c r="F80" s="58">
         <v>0.94103602888102855</v>
       </c>
-      <c r="G72" s="70">
+      <c r="G80" s="58">
         <v>0.94103602888102855</v>
       </c>
-      <c r="H72" s="70">
+      <c r="H80" s="58">
         <v>0.93571428571428561</v>
       </c>
-      <c r="I72" s="70">
+      <c r="I80" s="58">
         <v>0.93571428571428561</v>
       </c>
-      <c r="J72" s="70">
+      <c r="J80" s="58">
         <v>0.85</v>
       </c>
-      <c r="K72" s="71">
+      <c r="K80" s="59">
         <v>0.85</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" thickBot="1">
-      <c r="A73" s="72"/>
-      <c r="B73" s="73" t="s">
+    <row r="81" spans="1:11" ht="15" thickBot="1">
+      <c r="A81" s="83"/>
+      <c r="B81" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C73" s="73" t="s">
+      <c r="C81" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="73">
+      <c r="D81" s="64">
         <v>1</v>
       </c>
-      <c r="E73" s="73">
+      <c r="E81" s="60">
         <v>1</v>
       </c>
-      <c r="F73" s="73">
+      <c r="F81" s="60">
         <v>0.94103602888102855</v>
       </c>
-      <c r="G73" s="73">
+      <c r="G81" s="60">
         <v>0.94103602888102855</v>
       </c>
-      <c r="H73" s="73">
+      <c r="H81" s="60">
         <v>1</v>
       </c>
-      <c r="I73" s="73">
+      <c r="I81" s="60">
         <v>1</v>
       </c>
-      <c r="J73" s="73">
+      <c r="J81" s="60">
         <v>1</v>
       </c>
-      <c r="K73" s="74">
+      <c r="K81" s="61">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A52:A73"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A1:A10"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="A38:A45"/>
-    <mergeCell ref="A11:A30"/>
+    <mergeCell ref="A54:A81"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="A1:A12"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A13:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tests/testdata/test_geometry_computation.xlsx
+++ b/tests/testdata/test_geometry_computation.xlsx
@@ -1234,6 +1234,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1260,18 +1272,6 @@
     </xf>
     <xf numFmtId="2" fontId="12" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="8" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2043,24 +2043,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67:K67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="78" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" style="80" customWidth="1"/>
-    <col min="4" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.81640625" customWidth="1"/>
-    <col min="7" max="7" width="28.90625" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" customWidth="1"/>
-    <col min="9" max="11" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="80" customWidth="1"/>
+    <col min="4" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="91" t="s">
         <v>162</v>
       </c>
       <c r="B1" s="32" t="s">
@@ -2095,7 +2095,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="88"/>
+      <c r="A2" s="92"/>
       <c r="B2" s="34" t="s">
         <v>86</v>
       </c>
@@ -2128,7 +2128,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="88"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="34" t="s">
         <v>87</v>
       </c>
@@ -2161,7 +2161,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="88"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="34" t="s">
         <v>88</v>
       </c>
@@ -2194,7 +2194,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="88"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="34" t="s">
         <v>109</v>
       </c>
@@ -2227,7 +2227,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="88"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="34" t="s">
         <v>98</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="88"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="34" t="s">
         <v>89</v>
       </c>
@@ -2293,7 +2293,7 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="88"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="34" t="s">
         <v>90</v>
       </c>
@@ -2326,7 +2326,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="88"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="34" t="s">
         <v>91</v>
       </c>
@@ -2359,7 +2359,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="88"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="34" t="s">
         <v>92</v>
       </c>
@@ -2392,7 +2392,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="88"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="34" t="s">
         <v>166</v>
       </c>
@@ -2424,8 +2424,8 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1">
-      <c r="A12" s="89"/>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A12" s="93"/>
       <c r="B12" s="38" t="s">
         <v>167</v>
       </c>
@@ -2458,7 +2458,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="92" t="s">
         <v>163</v>
       </c>
       <c r="B13" s="34" t="s">
@@ -2493,7 +2493,7 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="88"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="34" t="s">
         <v>39</v>
       </c>
@@ -2526,7 +2526,7 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="88"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="34" t="s">
         <v>41</v>
       </c>
@@ -2559,7 +2559,7 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="88"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="34" t="s">
         <v>43</v>
       </c>
@@ -2592,7 +2592,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="88"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="34" t="s">
         <v>45</v>
       </c>
@@ -2625,7 +2625,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="88"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="34" t="s">
         <v>47</v>
       </c>
@@ -2658,7 +2658,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="88"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="34" t="s">
         <v>49</v>
       </c>
@@ -2691,7 +2691,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="88"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="34" t="s">
         <v>51</v>
       </c>
@@ -2724,7 +2724,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="88"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="34" t="s">
         <v>53</v>
       </c>
@@ -2757,7 +2757,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="88"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="34" t="s">
         <v>55</v>
       </c>
@@ -2790,7 +2790,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="88"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="34" t="s">
         <v>57</v>
       </c>
@@ -2823,7 +2823,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="88"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="34" t="s">
         <v>59</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="88"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="34" t="s">
         <v>61</v>
       </c>
@@ -2889,7 +2889,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="88"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="34" t="s">
         <v>63</v>
       </c>
@@ -2922,7 +2922,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="88"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="34" t="s">
         <v>65</v>
       </c>
@@ -2955,7 +2955,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="88"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="34" t="s">
         <v>67</v>
       </c>
@@ -2988,7 +2988,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="88"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="34" t="s">
         <v>69</v>
       </c>
@@ -3021,7 +3021,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="88"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="34" t="s">
         <v>93</v>
       </c>
@@ -3054,7 +3054,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="88"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="34" t="s">
         <v>94</v>
       </c>
@@ -3086,8 +3086,8 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1">
-      <c r="A32" s="89"/>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A32" s="93"/>
       <c r="B32" s="38" t="s">
         <v>95</v>
       </c>
@@ -3120,7 +3120,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="88" t="s">
         <v>117</v>
       </c>
       <c r="B33" s="42" t="s">
@@ -3155,7 +3155,7 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="85"/>
+      <c r="A34" s="89"/>
       <c r="B34" s="44" t="s">
         <v>108</v>
       </c>
@@ -3188,7 +3188,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="85"/>
+      <c r="A35" s="89"/>
       <c r="B35" s="44" t="s">
         <v>109</v>
       </c>
@@ -3221,7 +3221,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="85"/>
+      <c r="A36" s="89"/>
       <c r="B36" s="44" t="s">
         <v>79</v>
       </c>
@@ -3254,7 +3254,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="85"/>
+      <c r="A37" s="89"/>
       <c r="B37" s="44" t="s">
         <v>107</v>
       </c>
@@ -3287,7 +3287,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="85"/>
+      <c r="A38" s="89"/>
       <c r="B38" s="44" t="s">
         <v>116</v>
       </c>
@@ -3319,8 +3319,8 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" thickBot="1">
-      <c r="A39" s="86"/>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A39" s="90"/>
       <c r="B39" s="48" t="s">
         <v>74</v>
       </c>
@@ -3353,7 +3353,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="88" t="s">
         <v>124</v>
       </c>
       <c r="B40" s="51" t="s">
@@ -3388,7 +3388,7 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="85"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="52" t="s">
         <v>119</v>
       </c>
@@ -3421,7 +3421,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="85"/>
+      <c r="A42" s="89"/>
       <c r="B42" s="52" t="s">
         <v>120</v>
       </c>
@@ -3454,7 +3454,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="85"/>
+      <c r="A43" s="89"/>
       <c r="B43" s="52" t="s">
         <v>121</v>
       </c>
@@ -3487,7 +3487,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="85"/>
+      <c r="A44" s="89"/>
       <c r="B44" s="52" t="s">
         <v>122</v>
       </c>
@@ -3520,7 +3520,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="85"/>
+      <c r="A45" s="89"/>
       <c r="B45" s="52" t="s">
         <v>123</v>
       </c>
@@ -3553,7 +3553,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="85"/>
+      <c r="A46" s="89"/>
       <c r="B46" s="52" t="s">
         <v>75</v>
       </c>
@@ -3585,8 +3585,8 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1">
-      <c r="A47" s="86"/>
+    <row r="47" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A47" s="90"/>
       <c r="B47" s="53" t="s">
         <v>76</v>
       </c>
@@ -3619,7 +3619,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="84" t="s">
+      <c r="A48" s="88" t="s">
         <v>132</v>
       </c>
       <c r="B48" s="51" t="s">
@@ -3654,7 +3654,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="85"/>
+      <c r="A49" s="89"/>
       <c r="B49" s="52" t="s">
         <v>134</v>
       </c>
@@ -3687,7 +3687,7 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="85"/>
+      <c r="A50" s="89"/>
       <c r="B50" s="52" t="s">
         <v>135</v>
       </c>
@@ -3720,7 +3720,7 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="85"/>
+      <c r="A51" s="89"/>
       <c r="B51" s="44" t="s">
         <v>136</v>
       </c>
@@ -3753,7 +3753,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="85"/>
+      <c r="A52" s="89"/>
       <c r="B52" s="44" t="s">
         <v>137</v>
       </c>
@@ -3785,8 +3785,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" thickBot="1">
-      <c r="A53" s="86"/>
+    <row r="53" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A53" s="90"/>
       <c r="B53" s="48" t="s">
         <v>138</v>
       </c>
@@ -3819,7 +3819,7 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="85" t="s">
         <v>125</v>
       </c>
       <c r="B54" s="73" t="s">
@@ -3854,7 +3854,7 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="82"/>
+      <c r="A55" s="86"/>
       <c r="B55" s="74" t="s">
         <v>127</v>
       </c>
@@ -3887,7 +3887,7 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="82"/>
+      <c r="A56" s="86"/>
       <c r="B56" s="74" t="s">
         <v>128</v>
       </c>
@@ -3920,7 +3920,7 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="82"/>
+      <c r="A57" s="86"/>
       <c r="B57" s="74" t="s">
         <v>129</v>
       </c>
@@ -3953,7 +3953,7 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="82"/>
+      <c r="A58" s="86"/>
       <c r="B58" s="74" t="s">
         <v>130</v>
       </c>
@@ -3985,8 +3985,8 @@
         <v>507.3792416689073</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" thickBot="1">
-      <c r="A59" s="82"/>
+    <row r="59" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A59" s="86"/>
       <c r="B59" s="74" t="s">
         <v>131</v>
       </c>
@@ -4019,11 +4019,11 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="82"/>
+      <c r="A60" s="86"/>
       <c r="B60" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="C60" s="90" t="s">
+      <c r="C60" s="81" t="s">
         <v>168</v>
       </c>
       <c r="D60" s="62">
@@ -4031,7 +4031,7 @@
         <v>1.4267539407961325E-2</v>
       </c>
       <c r="E60" s="55">
-        <f t="shared" ref="E60:K63" si="0">((E40*(E$79^(10/3)))/((E$10*1000)^(10/3)))*1000000</f>
+        <f t="shared" ref="E60:K61" si="0">((E40*(E$79^(10/3)))/((E$10*1000)^(10/3)))*1000000</f>
         <v>9.4798426183987691E-2</v>
       </c>
       <c r="F60" s="55">
@@ -4060,11 +4060,11 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="82"/>
+      <c r="A61" s="86"/>
       <c r="B61" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="91" t="s">
+      <c r="C61" s="82" t="s">
         <v>169</v>
       </c>
       <c r="D61" s="63">
@@ -4101,11 +4101,11 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="82"/>
+      <c r="A62" s="86"/>
       <c r="B62" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="C62" s="91" t="s">
+      <c r="C62" s="82" t="s">
         <v>170</v>
       </c>
       <c r="D62" s="63">
@@ -4142,11 +4142,11 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="82"/>
+      <c r="A63" s="86"/>
       <c r="B63" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="91" t="s">
+      <c r="C63" s="82" t="s">
         <v>171</v>
       </c>
       <c r="D63" s="63">
@@ -4183,11 +4183,11 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="82"/>
+      <c r="A64" s="86"/>
       <c r="B64" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="C64" s="91" t="s">
+      <c r="C64" s="82" t="s">
         <v>172</v>
       </c>
       <c r="D64" s="63">
@@ -4224,11 +4224,11 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="82"/>
+      <c r="A65" s="86"/>
       <c r="B65" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="C65" s="91" t="s">
+      <c r="C65" s="82" t="s">
         <v>173</v>
       </c>
       <c r="D65" s="63">
@@ -4265,93 +4265,93 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="82"/>
+      <c r="A66" s="86"/>
       <c r="B66" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="92" t="s">
+      <c r="C66" s="83" t="s">
         <v>137</v>
       </c>
       <c r="D66" s="63">
-        <f>D31*4/6400000</f>
+        <f t="shared" ref="D66:I66" si="3">D31*4/6400000</f>
         <v>1.875</v>
       </c>
       <c r="E66" s="58">
-        <f>E31*4/6400000</f>
+        <f t="shared" si="3"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="F66" s="58">
-        <f>F31*4/6400000</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="G66" s="58">
-        <f>G31*4/6400000</f>
-        <v>6250000</v>
-      </c>
-      <c r="H66" s="58">
-        <f>H31*4/6400000</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="I66" s="58">
-        <f>I31*4/6400000</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="J66" s="58">
-        <f t="shared" ref="J66:K66" si="3">J31*4/6400000</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="K66" s="59">
         <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
+      <c r="G66" s="58">
+        <f t="shared" si="3"/>
+        <v>6250000</v>
+      </c>
+      <c r="H66" s="58">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I66" s="58">
+        <f t="shared" si="3"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J66" s="58">
+        <f t="shared" ref="J66:K66" si="4">J31*4/6400000</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K66" s="59">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="82"/>
+      <c r="A67" s="86"/>
       <c r="B67" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="92" t="s">
+      <c r="C67" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="D67" s="63">
-        <f>0.4*D30*D29/(450*6400000)</f>
-        <v>2.0558802442980002</v>
+      <c r="D67" s="58">
+        <f>1.01399203303703*D30*D29/(450*6400000)</f>
+        <v>5.2116154714909868</v>
       </c>
       <c r="E67" s="58">
-        <f>0.5*E30*E29/(450*6400000)</f>
-        <v>2.5572152616191466</v>
+        <f>1.34229270561531*E30*E29/(450*6400000)</f>
+        <v>6.8650627847190551</v>
       </c>
       <c r="F67" s="58">
-        <f>0.3*F30*F29/(450*6400000)</f>
-        <v>1.0648283115457</v>
+        <f>1.99925699014018*F30*F29/(450*6400000)</f>
+        <v>7.0962181505230202</v>
       </c>
       <c r="G67" s="58">
-        <f t="shared" ref="G67" si="4">0.4*G30*G29/(450*6400000)</f>
-        <v>2713991002.3206472</v>
+        <f>1.01399203303703*G30*G29/(450*6400000)</f>
+        <v>6879913135.2182999</v>
       </c>
       <c r="H67" s="58">
-        <f>0.5*H30*H29/(450*6400000)</f>
-        <v>3.5367267455312851E-2</v>
+        <f>1.34229270561531*H30*H29/(450*6400000)</f>
+        <v>9.494645024562437E-2</v>
       </c>
       <c r="I67" s="58">
-        <f>0.5*I30*I29/(450*6400000)</f>
-        <v>5.3050901182969268</v>
+        <f>1.34229270561531*I30*I29/(450*6400000)</f>
+        <v>14.241967536843655</v>
       </c>
       <c r="J67" s="58">
-        <f t="shared" ref="J67:K67" si="5">0.5*J30*J29/(450*6400000)</f>
-        <v>3.5367267455312851E-2</v>
-      </c>
-      <c r="K67" s="59">
+        <f t="shared" ref="J67:K67" si="5">1.34229270561531*J30*J29/(450*6400000)</f>
+        <v>9.494645024562437E-2</v>
+      </c>
+      <c r="K67" s="58">
         <f t="shared" si="5"/>
-        <v>0.24757087218718993</v>
+        <v>0.66462515171937053</v>
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="82"/>
+      <c r="A68" s="86"/>
       <c r="B68" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="91" t="s">
+      <c r="C68" s="82" t="s">
         <v>114</v>
       </c>
       <c r="D68" s="63">
@@ -4380,11 +4380,11 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="82"/>
+      <c r="A69" s="86"/>
       <c r="B69" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="91" t="s">
+      <c r="C69" s="82" t="s">
         <v>115</v>
       </c>
       <c r="D69" s="63">
@@ -4413,11 +4413,11 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="82"/>
+      <c r="A70" s="86"/>
       <c r="B70" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="91" t="s">
+      <c r="C70" s="82" t="s">
         <v>139</v>
       </c>
       <c r="D70" s="63">
@@ -4446,11 +4446,11 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="82"/>
+      <c r="A71" s="86"/>
       <c r="B71" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="92" t="s">
+      <c r="C71" s="83" t="s">
         <v>140</v>
       </c>
       <c r="D71" s="63">
@@ -4479,11 +4479,11 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="82"/>
+      <c r="A72" s="86"/>
       <c r="B72" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="92" t="s">
+      <c r="C72" s="83" t="s">
         <v>133</v>
       </c>
       <c r="D72" s="63">
@@ -4512,11 +4512,11 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="82"/>
+      <c r="A73" s="86"/>
       <c r="B73" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="92" t="s">
+      <c r="C73" s="83" t="s">
         <v>134</v>
       </c>
       <c r="D73" s="63">
@@ -4545,134 +4545,134 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="82"/>
+      <c r="A74" s="86"/>
       <c r="B74" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="92" t="s">
+      <c r="C74" s="83" t="s">
         <v>141</v>
       </c>
       <c r="D74" s="63">
-        <f>(D48*D50) / (1.1 * ((D53*D56)^(3/10)))</f>
+        <f t="shared" ref="D74:I74" si="6">(D48*D50) / (1.1 * ((D53*D56)^(3/10)))</f>
         <v>10007.495107814289</v>
       </c>
       <c r="E74" s="58">
-        <f>(E48*E50) / (1.1 * ((E53*E56)^(3/10)))</f>
+        <f t="shared" si="6"/>
         <v>506973.80172247218</v>
       </c>
       <c r="F74" s="58">
-        <f>(F48*F50) / (1.1 * ((F53*F56)^(3/10)))</f>
+        <f t="shared" si="6"/>
         <v>14338.838242669011</v>
       </c>
       <c r="G74" s="58">
-        <f>(G48*G50) / (1.1 * ((G53*G56)^(3/10)))</f>
+        <f t="shared" si="6"/>
         <v>2958.5133703862093</v>
       </c>
       <c r="H74" s="58">
-        <f>(H48*H50) / (1.1 * ((H53*H56)^(3/10)))</f>
+        <f t="shared" si="6"/>
         <v>22078.723059473952</v>
       </c>
       <c r="I74" s="58">
-        <f>(I48*I50) / (1.1 * ((I53*I56)^(3/10)))</f>
+        <f t="shared" si="6"/>
         <v>4910.7358542320153</v>
       </c>
       <c r="J74" s="58">
-        <f t="shared" ref="J74:K74" si="6">(J48*J50) / (1.1 * ((J53*J56)^(3/10)))</f>
+        <f t="shared" ref="J74:K74" si="7">(J48*J50) / (1.1 * ((J53*J56)^(3/10)))</f>
         <v>273786.69867282623</v>
       </c>
       <c r="K74" s="59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>152715.43482306821</v>
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="82"/>
+      <c r="A75" s="86"/>
       <c r="B75" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="C75" s="92" t="s">
+      <c r="C75" s="83" t="s">
         <v>142</v>
       </c>
       <c r="D75" s="63">
-        <f>D48/(1.1*((D58*D53)^(3/10)))*D50</f>
+        <f t="shared" ref="D75:I75" si="8">D48/(1.1*((D58*D53)^(3/10)))*D50</f>
         <v>9459.5533753159507</v>
       </c>
       <c r="E75" s="58">
-        <f>E48/(1.1*((E58*E53)^(3/10)))*E50</f>
+        <f t="shared" si="8"/>
         <v>316825.25658466032</v>
       </c>
       <c r="F75" s="58">
-        <f>F48/(1.1*((F58*F53)^(3/10)))*F50</f>
+        <f t="shared" si="8"/>
         <v>17315.690210134519</v>
       </c>
       <c r="G75" s="58">
-        <f>G48/(1.1*((G58*G53)^(3/10)))*G50</f>
+        <f t="shared" si="8"/>
         <v>1916.0884094104665</v>
       </c>
       <c r="H75" s="58">
-        <f>H48/(1.1*((H58*H53)^(3/10)))*H50</f>
+        <f t="shared" si="8"/>
         <v>18291.346097238205</v>
       </c>
       <c r="I75" s="58">
-        <f>I48/(1.1*((I58*I53)^(3/10)))*I50</f>
+        <f t="shared" si="8"/>
         <v>4068.349825300751</v>
       </c>
       <c r="J75" s="58">
-        <f t="shared" ref="J75:K75" si="7">J48/(1.1*((J58*J53)^(3/10)))*J50</f>
+        <f t="shared" ref="J75:K75" si="9">J48/(1.1*((J58*J53)^(3/10)))*J50</f>
         <v>226821.41755911187</v>
       </c>
       <c r="K75" s="59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>126518.67887533165</v>
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="82"/>
+      <c r="A76" s="86"/>
       <c r="B76" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="92" t="s">
+      <c r="C76" s="83" t="s">
         <v>143</v>
       </c>
       <c r="D76" s="63">
-        <f>D49*D51/(1.1*(D54*D52)^(3/10))</f>
+        <f t="shared" ref="D76:I76" si="10">D49*D51/(1.1*(D54*D52)^(3/10))</f>
         <v>5082.706170065776</v>
       </c>
       <c r="E76" s="58">
-        <f>E49*E51/(1.1*(E54*E52)^(3/10))</f>
+        <f t="shared" si="10"/>
         <v>3877.3786847692313</v>
       </c>
       <c r="F76" s="58">
-        <f>F49*F51/(1.1*(F54*F52)^(3/10))</f>
+        <f t="shared" si="10"/>
         <v>9030.9060985594551</v>
       </c>
       <c r="G76" s="58">
-        <f>G49*G51/(1.1*(G54*G52)^(3/10))</f>
+        <f t="shared" si="10"/>
         <v>33.884055577604357</v>
       </c>
       <c r="H76" s="58">
-        <f>H49*H51/(1.1*(H54*H52)^(3/10))</f>
+        <f t="shared" si="10"/>
         <v>13525.114236038917</v>
       </c>
       <c r="I76" s="58">
-        <f>I49*I51/(1.1*(I54*I52)^(3/10))</f>
+        <f t="shared" si="10"/>
         <v>1352511.4236038916</v>
       </c>
       <c r="J76" s="58">
-        <f t="shared" ref="J76:K76" si="8">J49*J51/(1.1*(J54*J52)^(3/10))</f>
+        <f t="shared" ref="J76:K76" si="11">J49*J51/(1.1*(J54*J52)^(3/10))</f>
         <v>3366.6576458050927</v>
       </c>
       <c r="K76" s="59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>336665.76458050928</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="82"/>
+      <c r="A77" s="86"/>
       <c r="B77" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="C77" s="91" t="s">
+      <c r="C77" s="82" t="s">
         <v>144</v>
       </c>
       <c r="D77" s="63">
@@ -4701,11 +4701,11 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="82"/>
+      <c r="A78" s="86"/>
       <c r="B78" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="C78" s="91" t="s">
+      <c r="C78" s="82" t="s">
         <v>145</v>
       </c>
       <c r="D78" s="63">
@@ -4734,11 +4734,11 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="82"/>
+      <c r="A79" s="86"/>
       <c r="B79" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="91" t="s">
+      <c r="C79" s="82" t="s">
         <v>76</v>
       </c>
       <c r="D79" s="63">
@@ -4767,11 +4767,11 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="82"/>
+      <c r="A80" s="86"/>
       <c r="B80" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="91" t="s">
+      <c r="C80" s="82" t="s">
         <v>135</v>
       </c>
       <c r="D80" s="63">
@@ -4799,12 +4799,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="15" thickBot="1">
-      <c r="A81" s="83"/>
+    <row r="81" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A81" s="87"/>
       <c r="B81" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="93" t="s">
+      <c r="C81" s="84" t="s">
         <v>136</v>
       </c>
       <c r="D81" s="64">
@@ -4872,11 +4872,11 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4908,7 +4908,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="98">
+    <row r="2" spans="1:9" ht="120">
       <c r="A2" s="17" t="s">
         <v>146</v>
       </c>
@@ -5159,13 +5159,13 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5197,7 +5197,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="112">
+    <row r="2" spans="1:9" ht="135">
       <c r="A2" s="17" t="s">
         <v>146</v>
       </c>
@@ -5504,7 +5504,7 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="29" t="s">
@@ -5624,7 +5624,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="29" t="s">
